--- a/ExcelData/Dialogue.xlsx
+++ b/ExcelData/Dialogue.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>WhiteScreenBehavior</t>
   </si>
 </sst>
 </file>
@@ -658,7 +661,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +669,7 @@
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="93.140625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -784,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1100,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>

--- a/ExcelData/Dialogue.xlsx
+++ b/ExcelData/Dialogue.xlsx
@@ -44,8 +44,12 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+You 0
 PROFESSOR N 1
-T.O.G.A 2</t>
+T.O.G.A 2
+TYRA 3
+ATLAS 4
+Aac 5</t>
         </r>
       </text>
     </comment>
@@ -63,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +89,32 @@
           <t xml:space="preserve">
 1 ShowOptions
 2 Show Questions
-3 Show Effect</t>
+3 Show Effect
+4 Next Scene</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+if next Operation is 3 then option1 is the id for whitescreen behavior</t>
         </r>
       </text>
     </comment>
@@ -94,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -204,9 +233,6 @@
     <t>Lastly, in front of you are three Biocrystals. They are what gives Biobots life. Choose whichever one you like to form the heart of your Biobot.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I choose the Blue Biocrystal! </t>
-  </si>
-  <si>
     <t xml:space="preserve">I choose the Purple Biocrystal! </t>
   </si>
   <si>
@@ -235,14 +261,236 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>WhiteScreenBehavior</t>
+    <t xml:space="preserve">I choose the Blue Biocrystal! </t>
+  </si>
+  <si>
+    <t>NextEffectID</t>
+  </si>
+  <si>
+    <t>Hey!! Don’t I know you? Yeah it IS you!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait a minute, your voice is kind of familiar. Have we played a game online or something? Wait.. PRINCESSPEACH217!!?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah, you look kind of familiar. Didn’t we go to the same school on Earth? You’re the leader of the soccer team right? </t>
+  </si>
+  <si>
+    <t>Yeah, I think I’ve seen you before. Don’t we live on the same street on Earth? You’re the one with that big dog that always barks when I walk past. You’re the girl who owns all those dogs right? What do you have, like, 6 now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That’s right!! I’m Tyra. I can’t believe we BOTH got recruited! It’s nice to see a familiar face! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH NO YOU DIDN’T!!!! </t>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
+  <si>
+    <t>OH NO I DID!!! What have I done!!?</t>
+  </si>
+  <si>
+    <t>YOU’VE TOTALLY RUINED MY OUTFIT!!!</t>
+  </si>
+  <si>
+    <t>S-sorry! I just -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey! What’s going on? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORRY!? You did that on purpose! </t>
+  </si>
+  <si>
+    <t>This kid just barged into me and my Biobot!</t>
+  </si>
+  <si>
+    <t>....Is that all?</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNNND he dumped his stinky sticky space juice all over my new outfit! It’s in my hair too!! GROSS!!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok yikes! Wait. What? Wait a minute.. </t>
+  </si>
+  <si>
+    <t>Thinking</t>
+  </si>
+  <si>
+    <t>What!?</t>
+  </si>
+  <si>
+    <t> Is it really called “Space Juice” oh yeah it is. Wow... so... creative…</t>
+  </si>
+  <si>
+    <t>Unamused</t>
+  </si>
+  <si>
+    <t>Forget about what it’s called! It’s ALL OVER ME!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh no! I’m so sorry! I was just trying to find my class and I’m completely lost! </t>
+  </si>
+  <si>
+    <t>Grimace</t>
+  </si>
+  <si>
+    <t>Easy to be lost if you’re not watching where you’re going! Besides, your map is upside down, genius.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think... What Atlas is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>trying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to say is “it’s not safe to walk around this busy courtyard with your head in a map.”</t>
+    </r>
+  </si>
+  <si>
+    <t>Don’t worry, errr. What’s your name?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s Zac. </t>
+  </si>
+  <si>
+    <t>Right, don’t worry Zac. Atlas is just mad cos you melted his hair wax.</t>
+  </si>
+  <si>
+    <t>Laugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow. Okay. I thought we were friends Ty! Why are you on this guy’s side??! Plus.. it’s not wax…. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's Styling Gel. </t>
+  </si>
+  <si>
+    <t>Uhuh… sure. Well you’ve got ‘styling gel’ running down your face, tough guy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t worry! I got your back Atlas! Zac better watch where he’s going next time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you, new kid! See!? Now there’s the support I needed from you, Ty! </t>
+  </si>
+  <si>
+    <t>Jeez. Always so dramatic..</t>
+  </si>
+  <si>
+    <t>Eyeroll</t>
+  </si>
+  <si>
+    <t>Okay, okay, sorry! I’ll be more careful next time…</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great! We better get to class now! We’re all super late! </t>
+  </si>
+  <si>
+    <t>Hey! What about the space juice!?? I’m still completely soaked!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re right… We better run fast so you can dry out on the way. Hahaha! </t>
+  </si>
+  <si>
+    <t>NOT FUNNY!!!</t>
+  </si>
+  <si>
+    <t>I think Zac just needs some help. We’re all new here!</t>
+  </si>
+  <si>
+    <t>(to Zac) Hey, it’s alright, Atlas can see that you’re very sorry…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What?! </t>
+  </si>
+  <si>
+    <t>(to Atlas) Hey it was just an accident, why don’t we calm down. I’ll help you out with those stains.... I packed an extra shirt. You can wear it if you want.</t>
+  </si>
+  <si>
+    <t>Ugh… I guess that would work for now…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanks……... sorry about that! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you sorry though? </t>
+  </si>
+  <si>
+    <t>YES!!! Of course I am!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m just messin with you! </t>
+  </si>
+  <si>
+    <t>WE KNOW!!</t>
+  </si>
+  <si>
+    <t>I think Tyra’s right. </t>
+  </si>
+  <si>
+    <r>
+      <t>Right!? Great minds think alike!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>You need to calm down, Atlas. Zac said sorry like a million times.</t>
+  </si>
+  <si>
+    <t>Sor...</t>
+  </si>
+  <si>
+    <t>Well can your great minds figure out how to remove space juice stains from my uniform before we’re all late to class?</t>
+  </si>
+  <si>
+    <t>You’re right… We better run fast so you can dry out on the way. Hahaha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT FUNNY!!! </t>
+  </si>
+  <si>
+    <t>IsBigUI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +530,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,13 +558,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,10 +916,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,19 +928,20 @@
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116" customWidth="1"/>
+    <col min="5" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,31 +958,37 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -739,32 +1005,38 @@
         <v>6</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <f>A3</f>
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -784,28 +1056,34 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -816,38 +1094,44 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4" si="0">A5</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4" si="0">A5</f>
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -867,31 +1151,37 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2">
         <f>A6</f>
         <v>5</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3">
         <f>A7</f>
         <v>6</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <f>A9</f>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -908,32 +1198,38 @@
         <v>6</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <f>A8</f>
         <v>7</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -950,32 +1246,38 @@
         <v>6</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <f>A8</f>
         <v>7</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -995,31 +1297,37 @@
         <v>0</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <f>A9</f>
         <v>8</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <f>A6</f>
         <v>5</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>23</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <f>A7</f>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1030,38 +1338,44 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <f>A10</f>
         <v>9</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1072,38 +1386,44 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <f>A11</f>
         <v>10</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1114,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -1123,28 +1443,34 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1161,32 +1487,38 @@
         <v>6</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <f>A13</f>
         <v>12</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1206,28 +1538,34 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1247,31 +1585,37 @@
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
       <c r="I14">
-        <f>A15</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K14">
         <f>A15</f>
         <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M14">
         <f>A15</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14">
+        <f>A15</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1282,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -1291,28 +1635,35 @@
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="H15" t="s">
-        <v>38</v>
-      </c>
       <c r="I15">
-        <v>0</v>
+        <f>I3+1</f>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1323,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -1332,24 +1683,2477 @@
         <v>0</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16">
+        <f>I15+1</f>
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <f>A18</f>
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17">
+        <f>A18</f>
+        <v>17</v>
+      </c>
+      <c r="N17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17">
+        <f>A18</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <f>I16+1</f>
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>A20</f>
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G28" si="1">A21</f>
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G34" si="2">A30</f>
+        <v>29</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G37" si="3">A36</f>
+        <v>35</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38" si="4">A39</f>
         <v>38</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G43" si="5">A40</f>
+        <v>39</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44:G46" si="6">A45</f>
+        <v>44</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>37</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ref="G47" si="7">A48</f>
+        <v>47</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ref="G48:G58" si="8">A49</f>
+        <v>48</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>37</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>37</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>37</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>37</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>37</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>37</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>37</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60:G66" si="9">A61</f>
+        <v>60</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>37</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>37</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>37</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>37</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>37</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>37</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>37</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>37</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>37</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>37</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>37</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>37</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>37</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>37</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>37</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>37</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>37</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67">
         <v>0</v>
       </c>
     </row>

--- a/ExcelData/Dialogue.xlsx
+++ b/ExcelData/Dialogue.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$100</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,6 +51,7 @@
 PROFESSOR N 1
 T.O.G.A 2
 TYRA 3
+Professor L 6
 ATLAS 4
 Aac 5</t>
         </r>
@@ -67,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -485,12 +489,199 @@
   <si>
     <t>IsBigUI</t>
   </si>
+  <si>
+    <t xml:space="preserve">Welcome to Mechology - the study of Biobots! Today we are learning to identify the parts of a Biobot. To be a great team, a Bioknight and their Biobot must know each other - inside and out. So why don’t we start with the most important part of a Biobot? </t>
+  </si>
+  <si>
+    <t>Who can tell me what gives a Biobot life? </t>
+  </si>
+  <si>
+    <t>Oh, is it... the Biocrystal?</t>
+  </si>
+  <si>
+    <t>That’s right!</t>
+  </si>
+  <si>
+    <t>But for extra points, how many colours of Biocrystal are there?</t>
+  </si>
+  <si>
+    <t>Three... I think.  </t>
+  </si>
+  <si>
+    <t>Three! And they are..?</t>
+  </si>
+  <si>
+    <t>Blue, Red and Purple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well done! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pshhh! Put your hand down, you cheater. </t>
+  </si>
+  <si>
+    <t>Atlas! What are you talking about!?</t>
+  </si>
+  <si>
+    <t>Don’t you know?</t>
+  </si>
+  <si>
+    <t>Know what?</t>
+  </si>
+  <si>
+    <t>There was a glitch in the Academy system this year... Apparently one student isn’t meant to be here, and I reckon it’s them!</t>
+  </si>
+  <si>
+    <t>What!? No way! We used to be neighbors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What!? No way! We used to go to the same school! </t>
+  </si>
+  <si>
+    <t>81|82|83</t>
+  </si>
+  <si>
+    <t>NextMultipleDialogue</t>
+  </si>
+  <si>
+    <t>C|B|A</t>
+  </si>
+  <si>
+    <t>Come on! It’s obvious!! Look at them trying to cover it up! They’re trying to answer every question. They’re trying to prove they're meant to be here so we don’t suspect them.</t>
+  </si>
+  <si>
+    <t>What!? No way! We used to play Dungeon League online together!</t>
+  </si>
+  <si>
+    <t>Did you hear what they were whispering about me before? It’s not true! </t>
+  </si>
+  <si>
+    <t>Yeah, total lies! You alright?</t>
+  </si>
+  <si>
+    <t> Not really...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This always happens! I remember a few years ago, I spilled juice on my pants, like one time, and everyone called me WIZZ KID all year! IT WAS JUST JUICE!!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hahaha! Wow, what is it with you and juice?! Sorry to laugh! </t>
+  </si>
+  <si>
+    <t>Hahaha! It’s okay! It’s funny now. People stopped calling me that after a while. No one calls me that anymore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why? </t>
+  </si>
+  <si>
+    <t>I don’t know… I guess when you don’t pay attention to rumours, people just forget about them…</t>
+  </si>
+  <si>
+    <t>Just don’t go reminding anyone, okay!?</t>
+  </si>
+  <si>
+    <t>Your secret is safe with me, Wizz Kid! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEY!!! Hahaha! </t>
+  </si>
+  <si>
+    <t>Hey Tyra, Atlas, wait up! You’re not going anywhere!</t>
+  </si>
+  <si>
+    <t>Yeah?</t>
+  </si>
+  <si>
+    <t>I heard what you said! It’s not true! I got an invite and I can prove it. </t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did I cheat? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He didn’t say. </t>
+  </si>
+  <si>
+    <t> But of course you’d say you didn’t cheat. That’s what a cheater WOULD say! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well if you actually asked me, I could show you proof. Here is the invite. </t>
+  </si>
+  <si>
+    <t>Oh...Hm.. (confused) I’m sorry… I guess we shouldn’t listen to rumours..</t>
+  </si>
+  <si>
+    <t>(should say something here)</t>
+  </si>
+  <si>
+    <t>Yes you shouldn’t! You never know if you’re hurting someone by just “talking”.</t>
+  </si>
+  <si>
+    <t>PreviousChosen</t>
+  </si>
+  <si>
+    <t>40|49|59</t>
+  </si>
+  <si>
+    <t>A|B|C</t>
+  </si>
+  <si>
+    <t>(run towards Tyra) Atlas, wait up!</t>
+  </si>
+  <si>
+    <t>Huh?</t>
+  </si>
+  <si>
+    <t>Why are you saying those ridiculous rumours?!</t>
+  </si>
+  <si>
+    <t>What are you talking-</t>
+  </si>
+  <si>
+    <t>You’re saying I’m not qualified to be in this academy!</t>
+  </si>
+  <si>
+    <t>Yeah well...</t>
+  </si>
+  <si>
+    <t>He didn’t say.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But of course you’d say you didn’t cheat. That’s what a cheater WOULD say! </t>
+  </si>
+  <si>
+    <t>oh… ugh.. It was a mistake I guess!! We couldn’t have known they made that up!</t>
+  </si>
+  <si>
+    <t>Yeah don’t go calling people liars! It’s not our fault anyways!</t>
+  </si>
+  <si>
+    <t>Well then don’t go around repeating rumours! You can piss someone off real bad!</t>
+  </si>
+  <si>
+    <r>
+      <t>How did I cheat the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n?! You’re just a bunch of liars!</t>
+    </r>
+  </si>
+  <si>
+    <t>85|96|107</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,13 +728,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -558,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -568,6 +777,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,32 +1133,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="116" customWidth="1"/>
+    <col min="4" max="4" width="130.5703125" customWidth="1"/>
     <col min="5" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,34 +1180,40 @@
         <v>101</v>
       </c>
       <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1007,18 +1232,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <f>A3</f>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1035,8 +1259,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1055,21 +1285,21 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3" t="s">
         <v>37</v>
       </c>
@@ -1082,8 +1312,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1102,18 +1338,18 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4" si="0">A5</f>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4" si="0">A5</f>
         <v>4</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1130,8 +1366,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1150,38 +1392,44 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <f>A6</f>
         <v>5</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="3">
+      <c r="O5" s="3">
         <f>A7</f>
         <v>6</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <f>A9</f>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1200,18 +1448,18 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
         <f>A8</f>
         <v>7</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1228,8 +1476,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1248,18 +1502,18 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
         <f>A8</f>
         <v>7</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1276,8 +1530,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1296,38 +1556,44 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <f>A9</f>
         <v>8</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>22</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <f>A6</f>
         <v>5</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>23</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <f>A7</f>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1346,18 +1612,18 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
         <f>A10</f>
         <v>9</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1374,8 +1640,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1394,18 +1666,18 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
         <f>A11</f>
         <v>10</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1422,8 +1694,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1442,18 +1720,18 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
@@ -1469,8 +1747,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1489,18 +1773,18 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12">
         <f>A13</f>
         <v>12</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1517,8 +1801,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1537,18 +1827,18 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
@@ -1564,8 +1854,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1584,38 +1880,44 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>38</v>
-      </c>
-      <c r="K14">
-        <f>A15</f>
-        <v>14</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
       </c>
       <c r="M14">
         <f>A15</f>
         <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O14">
         <f>A15</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14">
+        <f>A15</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1634,22 +1936,22 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
       </c>
       <c r="I15">
-        <f>I3+1</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <f>K3+1</f>
         <v>2</v>
       </c>
-      <c r="J15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15" t="s">
         <v>37</v>
       </c>
@@ -1662,8 +1964,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1682,21 +1990,21 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
       </c>
       <c r="I16">
-        <f>I15+1</f>
-        <v>3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <f>K15+1</f>
+        <v>3</v>
       </c>
       <c r="L16" t="s">
         <v>37</v>
@@ -1710,8 +2018,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1730,38 +2044,44 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>41</v>
-      </c>
-      <c r="K17">
-        <f>A18</f>
-        <v>17</v>
-      </c>
-      <c r="L17" t="s">
-        <v>42</v>
       </c>
       <c r="M17">
         <f>A18</f>
         <v>17</v>
       </c>
       <c r="N17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O17">
         <f>A18</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17">
+        <f>A18</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1780,22 +2100,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
       </c>
       <c r="I18">
-        <f>I16+1</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <f>K16+1</f>
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18" t="s">
         <v>37</v>
       </c>
@@ -1808,8 +2128,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1828,18 +2154,18 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19">
         <f>A20</f>
         <v>19</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>37</v>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1856,8 +2182,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1876,18 +2208,18 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20">
-        <f t="shared" ref="G20:G28" si="1">A21</f>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I28" si="1">A21</f>
         <v>20</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>37</v>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1904,8 +2236,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1924,18 +2262,18 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>37</v>
+      <c r="J21">
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1952,8 +2290,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1972,18 +2316,18 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>37</v>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2000,8 +2344,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2020,18 +2370,18 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>37</v>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2048,8 +2398,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2068,18 +2424,18 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>37</v>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2096,8 +2452,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2116,18 +2478,18 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>37</v>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2144,8 +2506,14 @@
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2164,18 +2532,18 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>37</v>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2192,8 +2560,14 @@
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2212,18 +2586,18 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>37</v>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2240,8 +2614,14 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2260,18 +2640,18 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>37</v>
+      <c r="J28">
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2288,8 +2668,14 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2308,18 +2694,18 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G34" si="2">A30</f>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I34" si="2">A30</f>
         <v>29</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>37</v>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2336,8 +2722,14 @@
       <c r="O29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2356,18 +2748,18 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>37</v>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2384,8 +2776,14 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2404,18 +2802,18 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>37</v>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2432,8 +2830,14 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2452,18 +2856,18 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>37</v>
+      <c r="J32">
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2480,8 +2884,14 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2500,18 +2910,18 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>37</v>
+      <c r="J33">
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2528,8 +2938,14 @@
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2548,18 +2964,18 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>37</v>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2576,8 +2992,14 @@
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2596,18 +3018,18 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
-        <f t="shared" ref="G35:G37" si="3">A36</f>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I37" si="3">A36</f>
         <v>35</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>37</v>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2624,8 +3046,14 @@
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2644,18 +3072,18 @@
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>37</v>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2672,8 +3100,14 @@
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2692,18 +3126,18 @@
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>37</v>
+      <c r="J37">
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2720,8 +3154,14 @@
       <c r="O37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2740,18 +3180,18 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38">
-        <f t="shared" ref="G38" si="4">A39</f>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38" si="4">A39</f>
         <v>38</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>37</v>
+      <c r="J38">
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2768,8 +3208,14 @@
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2788,18 +3234,18 @@
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39">
-        <f t="shared" ref="G39:G43" si="5">A40</f>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:I43" si="5">A40</f>
         <v>39</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>37</v>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2816,8 +3262,14 @@
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2827,7 +3279,7 @@
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E40" t="s">
@@ -2836,18 +3288,18 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
+      <c r="G40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>2</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>37</v>
-      </c>
       <c r="K40">
         <v>0</v>
       </c>
@@ -2863,8 +3315,14 @@
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2872,29 +3330,26 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>37</v>
+      <c r="J41">
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2911,8 +3366,14 @@
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2931,18 +3392,18 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>37</v>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2959,8 +3420,14 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2979,18 +3446,18 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>37</v>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3007,8 +3474,14 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3027,18 +3500,18 @@
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44">
-        <f t="shared" ref="G44:G46" si="6">A45</f>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ref="I44:I46" si="6">A45</f>
         <v>44</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>37</v>
+      <c r="J44">
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3055,8 +3528,14 @@
       <c r="O44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3075,18 +3554,18 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>37</v>
+      <c r="J45">
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3103,8 +3582,14 @@
       <c r="O45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3123,18 +3608,18 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
-        <v>37</v>
+      <c r="J46">
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3151,8 +3636,14 @@
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3171,18 +3662,18 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47">
-        <f t="shared" ref="G47" si="7">A48</f>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47" si="7">A48</f>
         <v>47</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
-        <v>37</v>
+      <c r="J47">
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3199,8 +3690,14 @@
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3219,18 +3716,18 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48">
-        <f t="shared" ref="G48:G58" si="8">A49</f>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48:I58" si="8">A49</f>
         <v>48</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>37</v>
+      <c r="J48">
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3247,8 +3744,14 @@
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3267,18 +3770,19 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49">
+        <f>A68</f>
+        <v>67</v>
+      </c>
+      <c r="J49">
         <v>4</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>37</v>
-      </c>
       <c r="K49">
         <v>0</v>
       </c>
@@ -3294,8 +3798,14 @@
       <c r="O49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3303,29 +3813,26 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>37</v>
+      <c r="J50">
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3342,8 +3849,14 @@
       <c r="O50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3351,29 +3864,26 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>37</v>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3390,8 +3900,14 @@
       <c r="O51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3410,18 +3926,18 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>37</v>
+      <c r="J52">
+        <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3438,8 +3954,14 @@
       <c r="O52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3447,29 +3969,26 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="8"/>
         <v>53</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>37</v>
+      <c r="J53">
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3486,8 +4005,14 @@
       <c r="O53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3506,18 +4031,18 @@
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54" t="s">
-        <v>37</v>
+      <c r="J54">
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3534,8 +4059,14 @@
       <c r="O54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3554,18 +4085,18 @@
       <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
-        <v>37</v>
+      <c r="J55">
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3582,8 +4113,14 @@
       <c r="O55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3602,18 +4139,18 @@
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>37</v>
+      <c r="J56">
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3630,8 +4167,14 @@
       <c r="O56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3650,18 +4193,18 @@
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s">
-        <v>37</v>
+      <c r="J57">
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3678,8 +4221,14 @@
       <c r="O57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3698,18 +4247,18 @@
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>37</v>
+      <c r="J58">
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3726,8 +4275,14 @@
       <c r="O58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3746,18 +4301,19 @@
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59">
+        <f>A68</f>
+        <v>67</v>
+      </c>
+      <c r="J59">
         <v>4</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>37</v>
-      </c>
       <c r="K59">
         <v>0</v>
       </c>
@@ -3773,8 +4329,14 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3782,29 +4344,26 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60">
-        <f t="shared" ref="G60:G66" si="9">A61</f>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:I66" si="9">A61</f>
         <v>60</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>37</v>
+      <c r="J60">
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3821,8 +4380,14 @@
       <c r="O60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3841,18 +4406,18 @@
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="9"/>
         <v>61</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>37</v>
+      <c r="J61">
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3869,8 +4434,14 @@
       <c r="O61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3889,18 +4460,18 @@
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>37</v>
+      <c r="J62">
+        <v>0</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3917,8 +4488,14 @@
       <c r="O62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3937,18 +4514,18 @@
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>37</v>
+      <c r="J63">
+        <v>0</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3965,8 +4542,14 @@
       <c r="O63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3985,18 +4568,18 @@
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>37</v>
+      <c r="J64">
+        <v>0</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4013,8 +4596,14 @@
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4033,18 +4622,18 @@
       <c r="F65">
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65" t="s">
-        <v>37</v>
+      <c r="J65">
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4061,8 +4650,14 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4081,18 +4676,18 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
-        <v>37</v>
+      <c r="J66">
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4109,13 +4704,19 @@
       <c r="O66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -4129,18 +4730,19 @@
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67">
+        <f>A68</f>
+        <v>67</v>
+      </c>
+      <c r="J67">
         <v>4</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>37</v>
-      </c>
       <c r="K67">
         <v>0</v>
       </c>
@@ -4154,6 +4756,2842 @@
         <v>37</v>
       </c>
       <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68" si="10">A69</f>
+        <v>68</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>37</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>37</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:I80" si="11">A70</f>
+        <v>69</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>37</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>37</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>99</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>37</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>37</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>37</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>37</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>37</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>37</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>99</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>37</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>37</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>37</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>37</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>99</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>37</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>37</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>37</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>37</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>37</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>37</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>37</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>37</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>37</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>37</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>37</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>37</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>120</v>
+      </c>
+      <c r="H81" t="s">
+        <v>118</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>37</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82">
+        <f>A85</f>
+        <v>84</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>37</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>37</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s">
+        <v>37</v>
+      </c>
+      <c r="I83">
+        <f>A85</f>
+        <v>84</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>37</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>37</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84">
+        <f>A85</f>
+        <v>84</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>37</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>37</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>147</v>
+      </c>
+      <c r="H85" t="s">
+        <v>160</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>37</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>37</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>99</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I86">
+        <f>A87</f>
+        <v>86</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>37</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>37</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ref="I87:I100" si="12">A88</f>
+        <v>87</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>37</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>37</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>99</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>37</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>37</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" t="s">
+        <v>76</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" t="s">
+        <v>37</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="12"/>
+        <v>89</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>37</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>37</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>99</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>37</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>37</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="12"/>
+        <v>91</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>37</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>37</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>99</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>37</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>37</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>37</v>
+      </c>
+      <c r="H93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="12"/>
+        <v>93</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>37</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>37</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E94" t="s">
+        <v>46</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="12"/>
+        <v>94</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>37</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>37</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>99</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="12"/>
+        <v>95</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95" t="s">
+        <v>37</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
+        <v>37</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>37</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>37</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>99</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="12"/>
+        <v>97</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>37</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>37</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>37</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>37</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>99</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>37</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>37</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" t="s">
+        <v>37</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100" t="s">
+        <v>37</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>37</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>99</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ref="I101:I106" si="13">A102</f>
+        <v>101</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>37</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
+        <v>37</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" t="s">
+        <v>37</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="13"/>
+        <v>102</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>37</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
+        <v>37</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" t="s">
+        <v>37</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="13"/>
+        <v>103</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>37</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
+        <v>37</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>99</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="13"/>
+        <v>104</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>37</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
+        <v>37</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" t="s">
+        <v>37</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105" t="s">
+        <v>37</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
+        <v>37</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="13"/>
+        <v>106</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>37</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
+        <v>37</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>99</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" t="s">
+        <v>37</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>37</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
+        <v>37</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>99</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108">
+        <f t="shared" ref="I108:I109" si="14">A109</f>
+        <v>108</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108" t="s">
+        <v>37</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108" t="s">
+        <v>37</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" t="s">
+        <v>37</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="14"/>
+        <v>109</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109" t="s">
+        <v>37</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
+        <v>37</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>99</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>37</v>
+      </c>
+      <c r="H110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I110">
+        <f t="shared" ref="I110:I112" si="15">A111</f>
+        <v>110</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110" t="s">
+        <v>37</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
+        <v>37</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>37</v>
+      </c>
+      <c r="H111" t="s">
+        <v>37</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="15"/>
+        <v>111</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111" t="s">
+        <v>37</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
+        <v>37</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>99</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>37</v>
+      </c>
+      <c r="H112" t="s">
+        <v>37</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="15"/>
+        <v>112</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112" t="s">
+        <v>37</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
+        <v>37</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>37</v>
+      </c>
+      <c r="H113" t="s">
+        <v>37</v>
+      </c>
+      <c r="I113">
+        <f t="shared" ref="I113:I119" si="16">A114</f>
+        <v>113</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>37</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
+        <v>37</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>99</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" t="s">
+        <v>37</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="16"/>
+        <v>114</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114" t="s">
+        <v>37</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
+        <v>37</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>37</v>
+      </c>
+      <c r="H115" t="s">
+        <v>37</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="16"/>
+        <v>115</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115" t="s">
+        <v>37</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
+        <v>37</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="16"/>
+        <v>116</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>37</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
+        <v>37</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>99</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" t="s">
+        <v>37</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="16"/>
+        <v>117</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117" t="s">
+        <v>37</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
+        <v>37</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118" t="s">
+        <v>37</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
+        <v>37</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" t="s">
+        <v>37</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="16"/>
+        <v>119</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119" t="s">
+        <v>37</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
+        <v>37</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>99</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" t="s">
+        <v>37</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>4</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120" t="s">
+        <v>37</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
+        <v>37</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q120">
         <v>0</v>
       </c>
     </row>

--- a/ExcelData/Dialogue.xlsx
+++ b/ExcelData/Dialogue.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$1017</definedName>
-    <definedName name="Z_7E4B503C_929B_4D1F_A3E9_11A4D172D459_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$R$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$279</definedName>
+    <definedName name="Z_7E4B503C_929B_4D1F_A3E9_11A4D172D459_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$R$254</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="0" shapeId="0">
+    <comment ref="C71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D272" authorId="0" shapeId="0">
+    <comment ref="D276" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D273" authorId="0" shapeId="0">
+    <comment ref="D277" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D274" authorId="0" shapeId="0">
+    <comment ref="D278" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="310">
   <si>
     <t>ID</t>
   </si>
@@ -239,39 +239,6 @@
     <t>Where was I? Yes, that’s right! Welcome to the Command Deck! This is where you will receive missions. As a new recruit, you must forge a Biobot of your own before you begin your training.</t>
   </si>
   <si>
-    <t xml:space="preserve">AWESOME!!! What’s a Biobot? </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>AWESOME!!!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>What kind of training?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> AWESOME!!! I’m ready! Let’s go! </t>
-  </si>
-  <si>
     <t>Biobots are living robots that grow in different ways, based on the human they are paired with. For example, my Biobot, T.O.G.A, has grown an extra pair of strong arms to help carry huge stacks of research books with me. With a bit of training, you and your Biobot will make the perfect team!</t>
   </si>
   <si>
@@ -279,15 +246,6 @@
   </si>
   <si>
     <t>What do you think? Ready to create your Biobot and begin your training?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’m ready! Let’s go! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could you tell me about Biobots? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could you tell me about training? </t>
   </si>
   <si>
     <t>Okay! Now I just need to ask you a couple of questions that will decide which Biobot you create.</t>
@@ -311,15 +269,6 @@
     <t>Lastly, in front of you are three Biocrystals. They are what gives Biobots life. Choose whichever one you like to form the heart of your Biobot.</t>
   </si>
   <si>
-    <t xml:space="preserve">I choose the Blue Biocrystal! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I choose the Purple Biocrystal! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I choose the Red Biocrystal! </t>
-  </si>
-  <si>
     <t>Great choice!! Now, place it here to create your very own Biobot!</t>
   </si>
   <si>
@@ -330,15 +279,6 @@
   </si>
   <si>
     <t>Hey!! Don’t I know you? Yeah it IS you!!</t>
-  </si>
-  <si>
-    <t>Wait a minute, your voice is kind of familiar. Have we played a game online or something? Wait.. SHADOWWARRIOR217!!?</t>
-  </si>
-  <si>
-    <t>Yeah, you look kind of familiar. Didn’t we go to the same school on Earth? You’re the leader of the soccer team right?</t>
-  </si>
-  <si>
-    <t>Yeah, I think I’ve seen you before. Don’t we live on the same street on Earth? You’re the girl who owns all those dogs right? What do you have, like, 6 now?</t>
   </si>
   <si>
     <t>That’s right!! I’m Tyra. I can’t believe we BOTH got recruited! It’s nice to see a familiar face!</t>
@@ -429,9 +369,6 @@
   </si>
   <si>
     <t>A|B|C</t>
-  </si>
-  <si>
-    <t>42|51|61</t>
   </si>
   <si>
     <t>Don’t worry! I got your back Atlas! Zac better watch where he’s going next time!!!</t>
@@ -1129,37 +1066,95 @@
 </t>
   </si>
   <si>
-    <t>86|87|88</t>
-  </si>
-  <si>
-    <t>91|103|114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 128|128|128</t>
-  </si>
-  <si>
-    <t>146|151|167</t>
-  </si>
-  <si>
-    <t>177|177|177</t>
-  </si>
-  <si>
-    <t>191|202|204</t>
-  </si>
-  <si>
-    <t>211|211|211</t>
-  </si>
-  <si>
-    <t>234|246|254</t>
-  </si>
-  <si>
-    <t>271|272|273</t>
-  </si>
-  <si>
     <t>IsBigOption</t>
   </si>
   <si>
-    <t>Can we have the text "Some of these situations could have happened in your own life, don’t you think? Now, let’s finish by setting some goals of things that you can do to improve in your own life. Which three things could you do to be even better next month?</t>
+    <t xml:space="preserve">"Some of these situations could have happened in your own life, don’t you think? Now, let’s finish by setting some goals of things that you can do to improve in your own life. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A    AWESOME!!! What’s a Biobot? </t>
+  </si>
+  <si>
+    <r>
+      <t>B    AWESOME!!!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>What kind of training?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A    I’m ready! Let’s go! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B    Could you tell me about Biobots? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C    AWESOME!!! I’m ready! Let’s go! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A    I choose the Blue Biocrystal! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B    I choose the Purple Biocrystal! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C    I choose the Red Biocrystal! </t>
+  </si>
+  <si>
+    <t>C    Yeah, I think I’ve seen you before. Don’t we live on the same street on Earth? You’re the girl who owns all those dogs right? What do you have, like, 6 now?</t>
+  </si>
+  <si>
+    <t>B    Yeah, you look kind of familiar. Didn’t we go to the same school on Earth? You’re the leader of the soccer team right?</t>
+  </si>
+  <si>
+    <t>A    Wait a minute, your voice is kind of familiar. Have we played a game online or something? Wait.. SHADOWWARRIOR217!!?</t>
+  </si>
+  <si>
+    <t>46|55|65</t>
+  </si>
+  <si>
+    <t>90|91|92</t>
+  </si>
+  <si>
+    <t>94|107|119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 132|132|132</t>
+  </si>
+  <si>
+    <t>150|158|175</t>
+  </si>
+  <si>
+    <t>181|181|181</t>
+  </si>
+  <si>
+    <t>195|206|209</t>
+  </si>
+  <si>
+    <t>215|215|215</t>
+  </si>
+  <si>
+    <t>238|250|258</t>
+  </si>
+  <si>
+    <t>275|276|277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C    Could you tell me about training? </t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1297,80 +1292,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1580,11 +1509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1017"/>
+  <dimension ref="A1:R1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C275" sqref="C275"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E275" sqref="A275:XFD275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1917,91 +1846,91 @@
         <v>19</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="3">
         <f>A7</f>
         <v>6</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>99</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="N7" s="3">
         <f>A8</f>
         <v>7</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="1">
-        <f>A10</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="O7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P7" s="7">
         <f>A9</f>
         <v>8</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>19</v>
+      <c r="Q7" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <f>A12</f>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -2015,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -2033,8 +1962,8 @@
         <v>19</v>
       </c>
       <c r="J8" s="1">
-        <f>A9</f>
-        <v>8</v>
+        <f>A10</f>
+        <v>9</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -2072,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -2090,34 +2019,32 @@
         <v>19</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="3">
         <f>A10</f>
         <v>9</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="3">
-        <f>A7</f>
-        <v>6</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>33</v>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="R9" s="1">
-        <f>A8</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -2131,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -2177,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2185,52 +2112,55 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
+        <v>99</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2</v>
-      </c>
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>19</v>
+      <c r="M11" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" s="3">
+        <f>A12</f>
+        <v>11</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P11" s="3">
+        <f>A8</f>
+        <v>7</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <f>A9</f>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2244,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2301,10 +2231,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2357,10 +2287,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2375,34 +2305,32 @@
         <v>19</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="3">
         <f>A15</f>
         <v>14</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="3">
-        <f>A15</f>
-        <v>14</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>43</v>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="R14" s="1">
-        <f>A15</f>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2416,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>22</v>
@@ -2437,11 +2365,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" s="1">
-        <f>L3+1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>19</v>
@@ -2472,8 +2399,8 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>45</v>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>22</v>
@@ -2495,10 +2422,10 @@
         <v>16</v>
       </c>
       <c r="K16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>19</v>
@@ -2519,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2527,14 +2454,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1">
         <v>0</v>
       </c>
@@ -2551,28 +2474,31 @@
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>19</v>
+      <c r="M17" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="N17" s="3">
+        <f>A18</f>
+        <v>17</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="P17" s="3">
+        <f>A18</f>
+        <v>17</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <f>A18</f>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2580,58 +2506,56 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
+        <f>L3+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="3">
-        <f>A19</f>
-        <v>18</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P18" s="3">
-        <f>A19</f>
-        <v>18</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>50</v>
+      <c r="M18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="R18" s="1">
-        <f>A19</f>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2639,13 +2563,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -2663,14 +2587,14 @@
         <v>19</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <f>A20</f>
+        <v>19</v>
       </c>
       <c r="K19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f>L16+1</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>19</v>
@@ -2696,35 +2620,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" ref="J20:J41" si="1">A21</f>
-        <v>20</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -2756,13 +2679,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2777,7 +2700,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
+        <f>A22</f>
         <v>21</v>
       </c>
       <c r="K21" s="1">
@@ -2805,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2813,19 +2736,15 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>19</v>
@@ -2834,35 +2753,37 @@
         <v>19</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N22" s="3">
+        <f>A23</f>
         <v>22</v>
       </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>19</v>
+      <c r="O22" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="P22" s="3">
+        <f>A23</f>
+        <v>22</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>A23</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2870,13 +2791,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -2891,14 +2812,13 @@
         <v>19</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>19</v>
@@ -2919,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2929,11 +2849,11 @@
       <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>57</v>
+      <c r="D24" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2948,7 +2868,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J24:J45" si="1">A25</f>
         <v>24</v>
       </c>
       <c r="K24" s="1">
@@ -2976,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2984,13 +2904,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -3044,10 +2964,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3098,13 +3018,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -3158,10 +3078,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -3215,10 +3135,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -3272,10 +3192,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -3329,10 +3249,10 @@
         <v>3</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -3386,10 +3306,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -3440,13 +3360,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -3500,10 +3420,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3554,13 +3474,13 @@
         <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3611,13 +3531,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3668,13 +3588,13 @@
         <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>73</v>
+        <v>5</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -3725,13 +3645,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -3782,13 +3702,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3839,13 +3759,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3896,13 +3816,13 @@
         <v>2</v>
       </c>
       <c r="C41" s="1">
-        <v>4</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -3945,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3953,13 +3873,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3968,16 +3888,17 @@
         <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="K42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
@@ -4009,12 +3930,14 @@
         <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
@@ -4028,7 +3951,7 @@
         <v>19</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" ref="J43:J50" si="2">A44</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="K43" s="1">
@@ -4064,13 +3987,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>9</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -4085,7 +4008,7 @@
         <v>19</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="K44" s="1">
@@ -4121,13 +4044,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -4142,7 +4065,7 @@
         <v>19</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="K45" s="1">
@@ -4170,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4178,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -4193,17 +4116,16 @@
         <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46" s="1">
         <v>0</v>
@@ -4235,14 +4157,12 @@
         <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="1">
         <v>0</v>
       </c>
@@ -4256,7 +4176,7 @@
         <v>19</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J47:J54" si="2">A48</f>
         <v>47</v>
       </c>
       <c r="K47" s="1">
@@ -4292,13 +4212,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>3</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -4349,13 +4269,13 @@
         <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -4406,13 +4326,13 @@
         <v>2</v>
       </c>
       <c r="C50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -4463,13 +4383,13 @@
         <v>2</v>
       </c>
       <c r="C51" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -4484,11 +4404,11 @@
         <v>19</v>
       </c>
       <c r="J51" s="1">
-        <f>A71</f>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
       <c r="K51" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1">
         <v>0</v>
@@ -4520,12 +4440,14 @@
         <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>99</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
@@ -4539,7 +4461,7 @@
         <v>19</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" ref="J52:J60" si="3">A53</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="K52" s="1">
@@ -4575,12 +4497,14 @@
         <v>2</v>
       </c>
       <c r="C53" s="1">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
@@ -4594,7 +4518,7 @@
         <v>19</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="K53" s="1">
@@ -4630,13 +4554,13 @@
         <v>2</v>
       </c>
       <c r="C54" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -4651,7 +4575,7 @@
         <v>19</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="K54" s="1">
@@ -4687,12 +4611,14 @@
         <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
@@ -4706,11 +4632,11 @@
         <v>19</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <f>A75</f>
+        <v>74</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L55" s="1">
         <v>0</v>
@@ -4742,14 +4668,12 @@
         <v>2</v>
       </c>
       <c r="C56" s="1">
-        <v>9</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="3"/>
       <c r="F56" s="1">
         <v>0</v>
       </c>
@@ -4763,7 +4687,7 @@
         <v>19</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J56:J64" si="3">A57</f>
         <v>56</v>
       </c>
       <c r="K56" s="1">
@@ -4799,14 +4723,12 @@
         <v>2</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E57" s="3"/>
       <c r="F57" s="1">
         <v>0</v>
       </c>
@@ -4856,13 +4778,13 @@
         <v>2</v>
       </c>
       <c r="C58" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -4913,14 +4835,12 @@
         <v>2</v>
       </c>
       <c r="C59" s="1">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E59" s="3"/>
       <c r="F59" s="1">
         <v>0</v>
       </c>
@@ -4970,13 +4890,13 @@
         <v>2</v>
       </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -5027,13 +4947,13 @@
         <v>2</v>
       </c>
       <c r="C61" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -5048,11 +4968,11 @@
         <v>19</v>
       </c>
       <c r="J61" s="1">
-        <f>A71</f>
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>61</v>
       </c>
       <c r="K61" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1">
         <v>0</v>
@@ -5076,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5084,12 +5004,14 @@
         <v>2</v>
       </c>
       <c r="C62" s="1">
-        <v>99</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
@@ -5103,7 +5025,7 @@
         <v>19</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" ref="J62:J85" si="4">A63</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="K62" s="1">
@@ -5139,13 +5061,13 @@
         <v>2</v>
       </c>
       <c r="C63" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -5160,7 +5082,7 @@
         <v>19</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="K63" s="1">
@@ -5196,13 +5118,13 @@
         <v>2</v>
       </c>
       <c r="C64" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -5217,7 +5139,7 @@
         <v>19</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="K64" s="1">
@@ -5252,13 +5174,15 @@
       <c r="B65" s="1">
         <v>2</v>
       </c>
-      <c r="C65" s="2">
-        <v>99</v>
+      <c r="C65" s="1">
+        <v>3</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="F65" s="1">
         <v>0</v>
       </c>
@@ -5272,11 +5196,11 @@
         <v>19</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="4"/>
-        <v>65</v>
+        <f>A75</f>
+        <v>74</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L65" s="1">
         <v>0</v>
@@ -5300,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5308,14 +5232,12 @@
         <v>2</v>
       </c>
       <c r="C66" s="1">
-        <v>5</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="1">
         <v>0</v>
       </c>
@@ -5329,7 +5251,7 @@
         <v>19</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J66:J89" si="4">A67</f>
         <v>66</v>
       </c>
       <c r="K66" s="1">
@@ -5365,13 +5287,13 @@
         <v>2</v>
       </c>
       <c r="C67" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -5422,13 +5344,13 @@
         <v>2</v>
       </c>
       <c r="C68" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -5478,15 +5400,13 @@
       <c r="B69" s="1">
         <v>2</v>
       </c>
-      <c r="C69" s="1">
-        <v>3</v>
+      <c r="C69" s="2">
+        <v>99</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="1">
         <v>0</v>
       </c>
@@ -5536,13 +5456,13 @@
         <v>2</v>
       </c>
       <c r="C70" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -5561,7 +5481,7 @@
         <v>70</v>
       </c>
       <c r="K70" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1">
         <v>0</v>
@@ -5590,16 +5510,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="1">
-        <v>6</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>109</v>
+        <v>4</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -5647,16 +5567,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -5704,15 +5624,17 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1">
         <v>3</v>
       </c>
-      <c r="C73" s="1">
-        <v>99</v>
-      </c>
       <c r="D73" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E73" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="F73" s="1">
         <v>0</v>
       </c>
@@ -5759,16 +5681,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -5787,7 +5709,7 @@
         <v>74</v>
       </c>
       <c r="K74" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L74" s="1">
         <v>0</v>
@@ -5821,11 +5743,11 @@
       <c r="C75" s="1">
         <v>6</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>113</v>
+      <c r="D75" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -5876,12 +5798,14 @@
         <v>3</v>
       </c>
       <c r="C76" s="1">
-        <v>99</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E76" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F76" s="1">
         <v>0</v>
       </c>
@@ -5931,14 +5855,12 @@
         <v>3</v>
       </c>
       <c r="C77" s="1">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E77" s="3"/>
       <c r="F77" s="1">
         <v>0</v>
       </c>
@@ -5988,12 +5910,14 @@
         <v>3</v>
       </c>
       <c r="C78" s="1">
+        <v>6</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F78" s="1">
         <v>0</v>
       </c>
@@ -6007,7 +5931,7 @@
         <v>19</v>
       </c>
       <c r="J78" s="1">
-        <f>A79</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="K78" s="1">
@@ -6035,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6043,13 +5967,13 @@
         <v>3</v>
       </c>
       <c r="C79" s="1">
-        <v>9</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -6064,7 +5988,7 @@
         <v>19</v>
       </c>
       <c r="J79" s="1">
-        <f>A80</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="K79" s="1">
@@ -6100,14 +6024,12 @@
         <v>3</v>
       </c>
       <c r="C80" s="1">
-        <v>6</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="3"/>
       <c r="F80" s="1">
         <v>0</v>
       </c>
@@ -6157,13 +6079,13 @@
         <v>3</v>
       </c>
       <c r="C81" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -6214,14 +6136,12 @@
         <v>3</v>
       </c>
       <c r="C82" s="1">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E82" s="3"/>
       <c r="F82" s="1">
         <v>0</v>
       </c>
@@ -6235,7 +6155,7 @@
         <v>19</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="4"/>
+        <f>A83</f>
         <v>82</v>
       </c>
       <c r="K82" s="1">
@@ -6263,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6271,13 +6191,13 @@
         <v>3</v>
       </c>
       <c r="C83" s="1">
-        <v>4</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>120</v>
+        <v>9</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -6292,7 +6212,7 @@
         <v>19</v>
       </c>
       <c r="J83" s="1">
-        <f t="shared" si="4"/>
+        <f>A84</f>
         <v>83</v>
       </c>
       <c r="K83" s="1">
@@ -6328,13 +6248,13 @@
         <v>3</v>
       </c>
       <c r="C84" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -6388,10 +6308,10 @@
         <v>4</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -6442,13 +6362,13 @@
         <v>3</v>
       </c>
       <c r="C86" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -6457,13 +6377,14 @@
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I86" s="22" t="s">
-        <v>299</v>
+        <v>19</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J86" s="1">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>86</v>
       </c>
       <c r="K86" s="1">
         <v>0</v>
@@ -6498,13 +6419,13 @@
         <v>3</v>
       </c>
       <c r="C87" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -6519,8 +6440,8 @@
         <v>19</v>
       </c>
       <c r="J87" s="1">
-        <f>A90</f>
-        <v>89</v>
+        <f t="shared" si="4"/>
+        <v>87</v>
       </c>
       <c r="K87" s="1">
         <v>0</v>
@@ -6558,10 +6479,10 @@
         <v>3</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -6576,8 +6497,8 @@
         <v>19</v>
       </c>
       <c r="J88" s="1">
-        <f>A90</f>
-        <v>89</v>
+        <f t="shared" si="4"/>
+        <v>88</v>
       </c>
       <c r="K88" s="1">
         <v>0</v>
@@ -6612,13 +6533,13 @@
         <v>3</v>
       </c>
       <c r="C89" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -6633,7 +6554,7 @@
         <v>19</v>
       </c>
       <c r="J89" s="1">
-        <f>A90</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="K89" s="1">
@@ -6669,13 +6590,13 @@
         <v>3</v>
       </c>
       <c r="C90" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -6684,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="I90" s="22" t="s">
         <v>300</v>
@@ -6693,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L90" s="1">
         <v>0</v>
@@ -6725,12 +6646,14 @@
         <v>3</v>
       </c>
       <c r="C91" s="1">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E91" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F91" s="1">
         <v>0</v>
       </c>
@@ -6744,8 +6667,8 @@
         <v>19</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" ref="J91:J102" si="5">A92</f>
-        <v>91</v>
+        <f>A94</f>
+        <v>93</v>
       </c>
       <c r="K91" s="1">
         <v>0</v>
@@ -6780,13 +6703,13 @@
         <v>3</v>
       </c>
       <c r="C92" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -6801,8 +6724,8 @@
         <v>19</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" si="5"/>
-        <v>92</v>
+        <f>A94</f>
+        <v>93</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
@@ -6837,12 +6760,14 @@
         <v>3</v>
       </c>
       <c r="C93" s="1">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E93" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F93" s="1">
         <v>0</v>
       </c>
@@ -6856,7 +6781,7 @@
         <v>19</v>
       </c>
       <c r="J93" s="1">
-        <f t="shared" si="5"/>
+        <f>A94</f>
         <v>93</v>
       </c>
       <c r="K93" s="1">
@@ -6892,13 +6817,13 @@
         <v>3</v>
       </c>
       <c r="C94" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -6907,17 +6832,16 @@
         <v>0</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="I94" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="J94" s="1">
-        <f t="shared" si="5"/>
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L94" s="1">
         <v>0</v>
@@ -6949,14 +6873,12 @@
         <v>3</v>
       </c>
       <c r="C95" s="1">
-        <v>5</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="3"/>
       <c r="F95" s="1">
         <v>0</v>
       </c>
@@ -6970,7 +6892,7 @@
         <v>19</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J95:J106" si="5">A96</f>
         <v>95</v>
       </c>
       <c r="K95" s="1">
@@ -7006,12 +6928,14 @@
         <v>3</v>
       </c>
       <c r="C96" s="1">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F96" s="1">
         <v>0</v>
       </c>
@@ -7061,14 +6985,12 @@
         <v>3</v>
       </c>
       <c r="C97" s="1">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E97" s="3"/>
       <c r="F97" s="1">
         <v>0</v>
       </c>
@@ -7118,12 +7040,14 @@
         <v>3</v>
       </c>
       <c r="C98" s="1">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E98" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="F98" s="1">
         <v>0</v>
       </c>
@@ -7175,11 +7099,11 @@
       <c r="C99" s="1">
         <v>5</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>136</v>
+      <c r="D99" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -7230,14 +7154,12 @@
         <v>3</v>
       </c>
       <c r="C100" s="1">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E100" s="3"/>
       <c r="F100" s="1">
         <v>0</v>
       </c>
@@ -7287,12 +7209,14 @@
         <v>3</v>
       </c>
       <c r="C101" s="1">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E101" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="F101" s="1">
         <v>0</v>
       </c>
@@ -7342,14 +7266,12 @@
         <v>3</v>
       </c>
       <c r="C102" s="1">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E102" s="3"/>
       <c r="F102" s="1">
         <v>0</v>
       </c>
@@ -7399,13 +7321,13 @@
         <v>3</v>
       </c>
       <c r="C103" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>76</v>
+        <v>123</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -7414,16 +7336,17 @@
         <v>0</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I103" s="22" t="s">
-        <v>301</v>
+        <v>19</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J103" s="1">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>103</v>
       </c>
       <c r="K103" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L103" s="1">
         <v>0</v>
@@ -7455,12 +7378,14 @@
         <v>3</v>
       </c>
       <c r="C104" s="1">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E104" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F104" s="1">
         <v>0</v>
       </c>
@@ -7474,7 +7399,7 @@
         <v>19</v>
       </c>
       <c r="J104" s="1">
-        <f t="shared" ref="J104:J114" si="6">A105</f>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="K104" s="1">
@@ -7510,14 +7435,12 @@
         <v>3</v>
       </c>
       <c r="C105" s="1">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E105" s="3"/>
       <c r="F105" s="1">
         <v>0</v>
       </c>
@@ -7531,7 +7454,7 @@
         <v>19</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="K105" s="1">
@@ -7567,12 +7490,14 @@
         <v>3</v>
       </c>
       <c r="C106" s="1">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E106" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="F106" s="1">
         <v>0</v>
       </c>
@@ -7586,7 +7511,7 @@
         <v>19</v>
       </c>
       <c r="J106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="K106" s="1">
@@ -7624,11 +7549,11 @@
       <c r="C107" s="1">
         <v>9</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>36</v>
+      <c r="D107" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -7637,17 +7562,16 @@
         <v>0</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="I107" s="22" t="s">
+        <v>302</v>
       </c>
       <c r="J107" s="1">
-        <f t="shared" si="6"/>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="K107" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L107" s="1">
         <v>0</v>
@@ -7679,14 +7603,12 @@
         <v>3</v>
       </c>
       <c r="C108" s="1">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E108" s="3"/>
       <c r="F108" s="1">
         <v>0</v>
       </c>
@@ -7700,7 +7622,7 @@
         <v>19</v>
       </c>
       <c r="J108" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J108:J118" si="6">A109</f>
         <v>108</v>
       </c>
       <c r="K108" s="1">
@@ -7736,12 +7658,14 @@
         <v>3</v>
       </c>
       <c r="C109" s="1">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E109" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F109" s="1">
         <v>0</v>
       </c>
@@ -7791,14 +7715,12 @@
         <v>3</v>
       </c>
       <c r="C110" s="1">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E110" s="13"/>
       <c r="F110" s="1">
         <v>0</v>
       </c>
@@ -7848,13 +7770,13 @@
         <v>3</v>
       </c>
       <c r="C111" s="1">
-        <v>3</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -7905,12 +7827,14 @@
         <v>3</v>
       </c>
       <c r="C112" s="1">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E112" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F112" s="1">
         <v>0</v>
       </c>
@@ -7960,14 +7884,12 @@
         <v>3</v>
       </c>
       <c r="C113" s="1">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E113" s="13"/>
       <c r="F113" s="1">
         <v>0</v>
       </c>
@@ -8017,12 +7939,14 @@
         <v>3</v>
       </c>
       <c r="C114" s="1">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E114" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F114" s="1">
         <v>0</v>
       </c>
@@ -8072,13 +7996,13 @@
         <v>3</v>
       </c>
       <c r="C115" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -8087,16 +8011,17 @@
         <v>0</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I115" s="22" t="s">
-        <v>301</v>
+        <v>19</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J115" s="1">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>115</v>
       </c>
       <c r="K115" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L115" s="1">
         <v>0</v>
@@ -8131,7 +8056,7 @@
         <v>99</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="1">
@@ -8147,7 +8072,7 @@
         <v>19</v>
       </c>
       <c r="J116" s="1">
-        <f t="shared" ref="J116:J127" si="7">A117</f>
+        <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="K116" s="1">
@@ -8183,13 +8108,13 @@
         <v>3</v>
       </c>
       <c r="C117" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>61</v>
+        <v>136</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
@@ -8204,7 +8129,7 @@
         <v>19</v>
       </c>
       <c r="J117" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="K117" s="1">
@@ -8243,7 +8168,7 @@
         <v>99</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="1">
@@ -8259,7 +8184,7 @@
         <v>19</v>
       </c>
       <c r="J118" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="K118" s="1">
@@ -8298,10 +8223,10 @@
         <v>4</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>61</v>
+        <v>138</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -8310,17 +8235,16 @@
         <v>0</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="I119" s="22" t="s">
+        <v>302</v>
       </c>
       <c r="J119" s="1">
-        <f t="shared" si="7"/>
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="K119" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L119" s="1">
         <v>0</v>
@@ -8355,7 +8279,7 @@
         <v>99</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="1">
@@ -8371,7 +8295,7 @@
         <v>19</v>
       </c>
       <c r="J120" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J120:J131" si="7">A121</f>
         <v>120</v>
       </c>
       <c r="K120" s="1">
@@ -8410,10 +8334,10 @@
         <v>4</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
@@ -8467,7 +8391,7 @@
         <v>99</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="1">
@@ -8522,10 +8446,10 @@
         <v>4</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
@@ -8576,14 +8500,12 @@
         <v>3</v>
       </c>
       <c r="C124" s="1">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E124" s="3"/>
       <c r="F124" s="1">
         <v>0</v>
       </c>
@@ -8633,12 +8555,14 @@
         <v>3</v>
       </c>
       <c r="C125" s="1">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E125" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F125" s="1">
         <v>0</v>
       </c>
@@ -8687,15 +8611,13 @@
       <c r="B126" s="1">
         <v>3</v>
       </c>
-      <c r="C126" s="2">
-        <v>4</v>
+      <c r="C126" s="1">
+        <v>99</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E126" s="3"/>
       <c r="F126" s="1">
         <v>0</v>
       </c>
@@ -8745,12 +8667,14 @@
         <v>3</v>
       </c>
       <c r="C127" s="1">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E127" s="13"/>
+        <v>146</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F127" s="1">
         <v>0</v>
       </c>
@@ -8800,13 +8724,13 @@
         <v>3</v>
       </c>
       <c r="C128" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>53</v>
+        <v>147</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -8821,10 +8745,11 @@
         <v>19</v>
       </c>
       <c r="J128" s="1">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>128</v>
       </c>
       <c r="K128" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L128" s="1">
         <v>0</v>
@@ -8853,17 +8778,15 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C129" s="1">
-        <v>4</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E129" s="3"/>
       <c r="F129" s="1">
         <v>0</v>
       </c>
@@ -8877,10 +8800,11 @@
         <v>19</v>
       </c>
       <c r="J129" s="1">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>129</v>
       </c>
       <c r="K129" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L129" s="1">
         <v>0</v>
@@ -8909,16 +8833,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
+        <v>3</v>
+      </c>
+      <c r="C130" s="2">
         <v>4</v>
       </c>
-      <c r="C130" s="1">
-        <v>3</v>
-      </c>
       <c r="D130" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
@@ -8933,7 +8857,7 @@
         <v>19</v>
       </c>
       <c r="J130" s="1">
-        <f t="shared" ref="J130:J136" si="8">A131</f>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="K130" s="1">
@@ -8966,17 +8890,15 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C131" s="1">
-        <v>7</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E131" s="13"/>
       <c r="F131" s="1">
         <v>0</v>
       </c>
@@ -8990,7 +8912,7 @@
         <v>19</v>
       </c>
       <c r="J131" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>131</v>
       </c>
       <c r="K131" s="1">
@@ -9023,35 +8945,34 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
+        <v>3</v>
+      </c>
+      <c r="C132" s="1">
+        <v>9</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
         <v>4</v>
-      </c>
-      <c r="C132" s="1">
-        <v>4</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F132" s="1">
-        <v>0</v>
-      </c>
-      <c r="G132" s="1">
-        <v>0</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J132" s="1">
-        <f t="shared" si="8"/>
-        <v>132</v>
-      </c>
-      <c r="K132" s="1">
-        <v>0</v>
       </c>
       <c r="L132" s="1">
         <v>0</v>
@@ -9083,13 +9004,13 @@
         <v>4</v>
       </c>
       <c r="C133" s="1">
-        <v>3</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>167</v>
+        <v>4</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -9104,11 +9025,10 @@
         <v>19</v>
       </c>
       <c r="J133" s="1">
-        <f t="shared" si="8"/>
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="K133" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L133" s="1">
         <v>0</v>
@@ -9140,13 +9060,13 @@
         <v>4</v>
       </c>
       <c r="C134" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
@@ -9161,7 +9081,7 @@
         <v>19</v>
       </c>
       <c r="J134" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J134:J140" si="8">A135</f>
         <v>134</v>
       </c>
       <c r="K134" s="1">
@@ -9197,13 +9117,13 @@
         <v>4</v>
       </c>
       <c r="C135" s="1">
-        <v>3</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>169</v>
+        <v>7</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F135" s="1">
         <v>0</v>
@@ -9257,10 +9177,10 @@
         <v>4</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>66</v>
+        <v>153</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F136" s="1">
         <v>0</v>
@@ -9314,10 +9234,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -9332,8 +9252,8 @@
         <v>19</v>
       </c>
       <c r="J137" s="1">
-        <f>A139</f>
-        <v>138</v>
+        <f t="shared" si="8"/>
+        <v>137</v>
       </c>
       <c r="K137" s="1">
         <v>0</v>
@@ -9368,13 +9288,13 @@
         <v>4</v>
       </c>
       <c r="C138" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
@@ -9389,7 +9309,7 @@
         <v>19</v>
       </c>
       <c r="J138" s="1">
-        <f t="shared" ref="J138:J145" si="9">A139</f>
+        <f t="shared" si="8"/>
         <v>138</v>
       </c>
       <c r="K138" s="1">
@@ -9425,13 +9345,13 @@
         <v>4</v>
       </c>
       <c r="C139" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
@@ -9446,7 +9366,7 @@
         <v>19</v>
       </c>
       <c r="J139" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>139</v>
       </c>
       <c r="K139" s="1">
@@ -9482,13 +9402,13 @@
         <v>4</v>
       </c>
       <c r="C140" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
@@ -9503,7 +9423,7 @@
         <v>19</v>
       </c>
       <c r="J140" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>140</v>
       </c>
       <c r="K140" s="1">
@@ -9539,13 +9459,13 @@
         <v>4</v>
       </c>
       <c r="C141" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F141" s="1">
         <v>0</v>
@@ -9560,8 +9480,8 @@
         <v>19</v>
       </c>
       <c r="J141" s="1">
-        <f t="shared" si="9"/>
-        <v>141</v>
+        <f>A143</f>
+        <v>142</v>
       </c>
       <c r="K141" s="1">
         <v>0</v>
@@ -9596,13 +9516,13 @@
         <v>4</v>
       </c>
       <c r="C142" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>69</v>
+        <v>88</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F142" s="1">
         <v>0</v>
@@ -9617,7 +9537,7 @@
         <v>19</v>
       </c>
       <c r="J142" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J142:J149" si="9">A143</f>
         <v>142</v>
       </c>
       <c r="K142" s="1">
@@ -9656,10 +9576,10 @@
         <v>4</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>69</v>
+        <v>159</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F143" s="1">
         <v>0</v>
@@ -9702,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -9713,10 +9633,10 @@
         <v>3</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>36</v>
+        <v>160</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F144" s="1">
         <v>0</v>
@@ -9767,13 +9687,13 @@
         <v>4</v>
       </c>
       <c r="C145" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>76</v>
+        <v>161</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F145" s="1">
         <v>0</v>
@@ -9827,10 +9747,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F146" s="1">
         <v>0</v>
@@ -9839,16 +9759,17 @@
         <v>0</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I146" s="22" t="s">
-        <v>302</v>
+        <v>19</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J146" s="1">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>146</v>
       </c>
       <c r="K146" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L146" s="1">
         <v>0</v>
@@ -9880,12 +9801,14 @@
         <v>4</v>
       </c>
       <c r="C147" s="1">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E147" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F147" s="1">
         <v>0</v>
       </c>
@@ -9899,7 +9822,7 @@
         <v>19</v>
       </c>
       <c r="J147" s="1">
-        <f t="shared" ref="J147:J153" si="10">A148</f>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="K147" s="1">
@@ -9927,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -9935,13 +9858,13 @@
         <v>4</v>
       </c>
       <c r="C148" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>36</v>
+        <v>164</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F148" s="1">
         <v>0</v>
@@ -9956,7 +9879,7 @@
         <v>19</v>
       </c>
       <c r="J148" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>148</v>
       </c>
       <c r="K148" s="1">
@@ -9992,12 +9915,14 @@
         <v>4</v>
       </c>
       <c r="C149" s="1">
-        <v>99</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E149" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F149" s="1">
         <v>0</v>
       </c>
@@ -10011,7 +9936,7 @@
         <v>19</v>
       </c>
       <c r="J149" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>149</v>
       </c>
       <c r="K149" s="1">
@@ -10047,13 +9972,13 @@
         <v>4</v>
       </c>
       <c r="C150" s="1">
-        <v>9</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F150" s="1">
         <v>0</v>
@@ -10062,17 +9987,16 @@
         <v>0</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="I150" s="22" t="s">
+        <v>303</v>
       </c>
       <c r="J150" s="1">
-        <f t="shared" si="10"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K150" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L150" s="1">
         <v>0</v>
@@ -10104,14 +10028,12 @@
         <v>4</v>
       </c>
       <c r="C151" s="1">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E151" s="3"/>
       <c r="F151" s="1">
         <v>0</v>
       </c>
@@ -10125,7 +10047,7 @@
         <v>19</v>
       </c>
       <c r="J151" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J151:J157" si="10">A152</f>
         <v>151</v>
       </c>
       <c r="K151" s="1">
@@ -10161,13 +10083,13 @@
         <v>4</v>
       </c>
       <c r="C152" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F152" s="1">
         <v>0</v>
@@ -10218,14 +10140,12 @@
         <v>4</v>
       </c>
       <c r="C153" s="1">
-        <v>3</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153" s="3"/>
       <c r="F153" s="1">
         <v>0</v>
       </c>
@@ -10275,13 +10195,13 @@
         <v>4</v>
       </c>
       <c r="C154" s="1">
-        <v>4</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F154" s="1">
         <v>0</v>
@@ -10290,16 +10210,17 @@
         <v>0</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I154" s="22" t="s">
-        <v>303</v>
+        <v>19</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J154" s="1">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>154</v>
       </c>
       <c r="K154" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L154" s="1">
         <v>0</v>
@@ -10331,12 +10252,14 @@
         <v>4</v>
       </c>
       <c r="C155" s="1">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E155" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F155" s="1">
         <v>0</v>
       </c>
@@ -10350,7 +10273,7 @@
         <v>19</v>
       </c>
       <c r="J155" s="1">
-        <f t="shared" ref="J155:J170" si="11">A156</f>
+        <f t="shared" si="10"/>
         <v>155</v>
       </c>
       <c r="K155" s="1">
@@ -10389,10 +10312,10 @@
         <v>4</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>76</v>
+        <v>170</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="F156" s="1">
         <v>0</v>
@@ -10407,7 +10330,7 @@
         <v>19</v>
       </c>
       <c r="J156" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
       <c r="K156" s="1">
@@ -10446,10 +10369,10 @@
         <v>3</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>66</v>
+        <v>171</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F157" s="1">
         <v>0</v>
@@ -10464,7 +10387,7 @@
         <v>19</v>
       </c>
       <c r="J157" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
       <c r="K157" s="1">
@@ -10500,13 +10423,13 @@
         <v>4</v>
       </c>
       <c r="C158" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>61</v>
+        <v>172</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F158" s="1">
         <v>0</v>
@@ -10515,17 +10438,16 @@
         <v>0</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="I158" s="22" t="s">
+        <v>304</v>
       </c>
       <c r="J158" s="1">
-        <f t="shared" si="11"/>
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="K158" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L158" s="1">
         <v>0</v>
@@ -10560,7 +10482,7 @@
         <v>99</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="1">
@@ -10576,7 +10498,7 @@
         <v>19</v>
       </c>
       <c r="J159" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J159:J174" si="11">A160</f>
         <v>159</v>
       </c>
       <c r="K159" s="1">
@@ -10612,13 +10534,13 @@
         <v>4</v>
       </c>
       <c r="C160" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="F160" s="1">
         <v>0</v>
@@ -10669,12 +10591,14 @@
         <v>4</v>
       </c>
       <c r="C161" s="1">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E161" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F161" s="1">
         <v>0</v>
       </c>
@@ -10724,13 +10648,13 @@
         <v>4</v>
       </c>
       <c r="C162" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F162" s="1">
         <v>0</v>
@@ -10784,7 +10708,7 @@
         <v>99</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="1">
@@ -10839,10 +10763,10 @@
         <v>8</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>66</v>
+        <v>178</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F164" s="1">
         <v>0</v>
@@ -10896,7 +10820,7 @@
         <v>99</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="1">
@@ -10951,10 +10875,10 @@
         <v>8</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>69</v>
+        <v>180</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F166" s="1">
         <v>0</v>
@@ -11008,7 +10932,7 @@
         <v>99</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="1">
@@ -11063,10 +10987,10 @@
         <v>8</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>36</v>
+        <v>182</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F168" s="1">
         <v>0</v>
@@ -11120,7 +11044,7 @@
         <v>99</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="1">
@@ -11175,10 +11099,10 @@
         <v>8</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>76</v>
+        <v>184</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F170" s="1">
         <v>0</v>
@@ -11229,14 +11153,12 @@
         <v>4</v>
       </c>
       <c r="C171" s="1">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E171" s="3"/>
       <c r="F171" s="1">
         <v>0</v>
       </c>
@@ -11244,16 +11166,17 @@
         <v>0</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I171" s="22" t="s">
-        <v>303</v>
+        <v>19</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J171" s="1">
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>171</v>
       </c>
       <c r="K171" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L171" s="1">
         <v>0</v>
@@ -11285,12 +11208,14 @@
         <v>4</v>
       </c>
       <c r="C172" s="1">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E172" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F172" s="1">
         <v>0</v>
       </c>
@@ -11304,8 +11229,8 @@
         <v>19</v>
       </c>
       <c r="J172" s="1">
-        <f>A174</f>
-        <v>173</v>
+        <f t="shared" si="11"/>
+        <v>172</v>
       </c>
       <c r="K172" s="1">
         <v>0</v>
@@ -11340,14 +11265,12 @@
         <v>4</v>
       </c>
       <c r="C173" s="1">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E173" s="3"/>
       <c r="F173" s="1">
         <v>0</v>
       </c>
@@ -11361,7 +11284,7 @@
         <v>19</v>
       </c>
       <c r="J173" s="1">
-        <f t="shared" ref="J173:J176" si="12">A174</f>
+        <f t="shared" si="11"/>
         <v>173</v>
       </c>
       <c r="K173" s="1">
@@ -11397,13 +11320,13 @@
         <v>4</v>
       </c>
       <c r="C174" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F174" s="1">
         <v>0</v>
@@ -11418,7 +11341,7 @@
         <v>19</v>
       </c>
       <c r="J174" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>174</v>
       </c>
       <c r="K174" s="1">
@@ -11454,32 +11377,31 @@
         <v>4</v>
       </c>
       <c r="C175" s="1">
+        <v>9</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0</v>
+      </c>
+      <c r="G175" s="1">
+        <v>0</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I175" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="J175" s="1">
+        <v>0</v>
+      </c>
+      <c r="K175" s="1">
         <v>4</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F175" s="1">
-        <v>0</v>
-      </c>
-      <c r="G175" s="1">
-        <v>0</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J175" s="1">
-        <f t="shared" si="12"/>
-        <v>175</v>
-      </c>
-      <c r="K175" s="1">
-        <v>0</v>
       </c>
       <c r="L175" s="1">
         <v>0</v>
@@ -11511,14 +11433,12 @@
         <v>4</v>
       </c>
       <c r="C176" s="1">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E176" s="3"/>
       <c r="F176" s="1">
         <v>0</v>
       </c>
@@ -11532,8 +11452,8 @@
         <v>19</v>
       </c>
       <c r="J176" s="1">
-        <f t="shared" si="12"/>
-        <v>176</v>
+        <f>A178</f>
+        <v>177</v>
       </c>
       <c r="K176" s="1">
         <v>0</v>
@@ -11568,13 +11488,13 @@
         <v>4</v>
       </c>
       <c r="C177" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F177" s="1">
         <v>0</v>
@@ -11589,10 +11509,11 @@
         <v>19</v>
       </c>
       <c r="J177" s="1">
-        <v>0</v>
+        <f t="shared" ref="J177:J180" si="12">A178</f>
+        <v>177</v>
       </c>
       <c r="K177" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L177" s="1">
         <v>0</v>
@@ -11621,16 +11542,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C178" s="1">
         <v>3</v>
       </c>
-      <c r="D178" s="11" t="s">
-        <v>207</v>
+      <c r="D178" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F178" s="1">
         <v>0</v>
@@ -11645,7 +11566,7 @@
         <v>19</v>
       </c>
       <c r="J178" s="1">
-        <f t="shared" ref="J178:J181" si="13">A179</f>
+        <f t="shared" si="12"/>
         <v>178</v>
       </c>
       <c r="K178" s="1">
@@ -11678,16 +11599,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C179" s="1">
         <v>4</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F179" s="1">
         <v>0</v>
@@ -11702,7 +11623,7 @@
         <v>19</v>
       </c>
       <c r="J179" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>179</v>
       </c>
       <c r="K179" s="1">
@@ -11735,16 +11656,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C180" s="1">
         <v>3</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F180" s="1">
         <v>0</v>
@@ -11759,7 +11680,7 @@
         <v>19</v>
       </c>
       <c r="J180" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="K180" s="1">
@@ -11792,16 +11713,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F181" s="1">
         <v>0</v>
@@ -11816,11 +11737,10 @@
         <v>19</v>
       </c>
       <c r="J181" s="1">
-        <f t="shared" si="13"/>
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="K181" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L181" s="1">
         <v>0</v>
@@ -11852,13 +11772,13 @@
         <v>5</v>
       </c>
       <c r="C182" s="1">
-        <v>4</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>61</v>
+        <v>3</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F182" s="1">
         <v>0</v>
@@ -11873,10 +11793,11 @@
         <v>19</v>
       </c>
       <c r="J182" s="1">
-        <v>0</v>
+        <f t="shared" ref="J182:J185" si="13">A183</f>
+        <v>182</v>
       </c>
       <c r="K182" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L182" s="1">
         <v>0</v>
@@ -11911,10 +11832,10 @@
         <v>4</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F183" s="1">
         <v>0</v>
@@ -11929,7 +11850,7 @@
         <v>19</v>
       </c>
       <c r="J183" s="1">
-        <f t="shared" ref="J183:J190" si="14">A184</f>
+        <f t="shared" si="13"/>
         <v>183</v>
       </c>
       <c r="K183" s="1">
@@ -11965,13 +11886,13 @@
         <v>5</v>
       </c>
       <c r="C184" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F184" s="1">
         <v>0</v>
@@ -11986,7 +11907,7 @@
         <v>19</v>
       </c>
       <c r="J184" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>184</v>
       </c>
       <c r="K184" s="1">
@@ -12022,13 +11943,13 @@
         <v>5</v>
       </c>
       <c r="C185" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F185" s="1">
         <v>0</v>
@@ -12043,7 +11964,7 @@
         <v>19</v>
       </c>
       <c r="J185" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>185</v>
       </c>
       <c r="K185" s="1">
@@ -12082,10 +12003,10 @@
         <v>4</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>38</v>
+        <v>198</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F186" s="1">
         <v>0</v>
@@ -12100,11 +12021,10 @@
         <v>19</v>
       </c>
       <c r="J186" s="1">
-        <f t="shared" si="14"/>
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K186" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L186" s="1">
         <v>0</v>
@@ -12139,10 +12059,10 @@
         <v>4</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="F187" s="1">
         <v>0</v>
@@ -12157,7 +12077,7 @@
         <v>19</v>
       </c>
       <c r="J187" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="J187:J194" si="14">A188</f>
         <v>187</v>
       </c>
       <c r="K187" s="1">
@@ -12193,13 +12113,13 @@
         <v>5</v>
       </c>
       <c r="C188" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>105</v>
+        <v>200</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F188" s="1">
         <v>0</v>
@@ -12250,13 +12170,13 @@
         <v>5</v>
       </c>
       <c r="C189" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F189" s="1">
         <v>0</v>
@@ -12310,10 +12230,10 @@
         <v>4</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F190" s="1">
         <v>0</v>
@@ -12364,13 +12284,13 @@
         <v>5</v>
       </c>
       <c r="C191" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F191" s="1">
         <v>0</v>
@@ -12379,16 +12299,17 @@
         <v>0</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I191" s="22" t="s">
-        <v>304</v>
+        <v>19</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J191" s="1">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>191</v>
       </c>
       <c r="K191" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L191" s="1">
         <v>0</v>
@@ -12420,12 +12341,14 @@
         <v>5</v>
       </c>
       <c r="C192" s="1">
-        <v>99</v>
-      </c>
-      <c r="D192" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E192" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="F192" s="1">
         <v>0</v>
       </c>
@@ -12439,7 +12362,7 @@
         <v>19</v>
       </c>
       <c r="J192" s="1">
-        <f t="shared" ref="J192:J197" si="15">A193</f>
+        <f t="shared" si="14"/>
         <v>192</v>
       </c>
       <c r="K192" s="1">
@@ -12475,13 +12398,13 @@
         <v>5</v>
       </c>
       <c r="C193" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>105</v>
+        <v>205</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F193" s="1">
         <v>0</v>
@@ -12496,7 +12419,7 @@
         <v>19</v>
       </c>
       <c r="J193" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>193</v>
       </c>
       <c r="K193" s="1">
@@ -12532,12 +12455,14 @@
         <v>5</v>
       </c>
       <c r="C194" s="1">
-        <v>99</v>
-      </c>
-      <c r="D194" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E194" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F194" s="1">
         <v>0</v>
       </c>
@@ -12551,7 +12476,7 @@
         <v>19</v>
       </c>
       <c r="J194" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>194</v>
       </c>
       <c r="K194" s="1">
@@ -12590,10 +12515,10 @@
         <v>5</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F195" s="1">
         <v>0</v>
@@ -12602,17 +12527,16 @@
         <v>0</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="I195" s="22" t="s">
+        <v>305</v>
       </c>
       <c r="J195" s="1">
-        <f t="shared" si="15"/>
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="K195" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L195" s="1">
         <v>0</v>
@@ -12647,7 +12571,7 @@
         <v>99</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="1">
@@ -12663,7 +12587,7 @@
         <v>19</v>
       </c>
       <c r="J196" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J196:J201" si="15">A197</f>
         <v>196</v>
       </c>
       <c r="K196" s="1">
@@ -12691,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -12702,10 +12626,10 @@
         <v>5</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>22</v>
+        <v>209</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="F197" s="1">
         <v>0</v>
@@ -12758,8 +12682,8 @@
       <c r="C198" s="1">
         <v>99</v>
       </c>
-      <c r="D198" s="7" t="s">
-        <v>227</v>
+      <c r="D198" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="1">
@@ -12775,10 +12699,11 @@
         <v>19</v>
       </c>
       <c r="J198" s="1">
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>198</v>
       </c>
       <c r="K198" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L198" s="1">
         <v>0</v>
@@ -12809,14 +12734,14 @@
       <c r="B199" s="1">
         <v>5</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="1">
         <v>5</v>
       </c>
-      <c r="D199" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>22</v>
+      <c r="D199" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F199" s="1">
         <v>0</v>
@@ -12831,7 +12756,7 @@
         <v>19</v>
       </c>
       <c r="J199" s="1">
-        <f t="shared" ref="J199:J201" si="16">A200</f>
+        <f t="shared" si="15"/>
         <v>199</v>
       </c>
       <c r="K199" s="1">
@@ -12859,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -12867,14 +12792,12 @@
         <v>5</v>
       </c>
       <c r="C200" s="1">
-        <v>4</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E200" s="3"/>
       <c r="F200" s="1">
         <v>0</v>
       </c>
@@ -12888,7 +12811,7 @@
         <v>19</v>
       </c>
       <c r="J200" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="K200" s="1">
@@ -12916,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -12924,10 +12847,10 @@
         <v>5</v>
       </c>
       <c r="C201" s="1">
-        <v>3</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>230</v>
+        <v>5</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>22</v>
@@ -12945,7 +12868,7 @@
         <v>19</v>
       </c>
       <c r="J201" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>201</v>
       </c>
       <c r="K201" s="1">
@@ -12981,12 +12904,12 @@
         <v>5</v>
       </c>
       <c r="C202" s="1">
-        <v>9</v>
-      </c>
-      <c r="D202" s="14"/>
-      <c r="E202" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E202" s="3"/>
       <c r="F202" s="1">
         <v>0</v>
       </c>
@@ -12994,16 +12917,16 @@
         <v>0</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I202" s="22" t="s">
-        <v>305</v>
+        <v>19</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J202" s="1">
         <v>0</v>
       </c>
       <c r="K202" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L202" s="1">
         <v>0</v>
@@ -13034,14 +12957,14 @@
       <c r="B203" s="1">
         <v>5</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="2">
         <v>5</v>
       </c>
-      <c r="D203" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>53</v>
+      <c r="D203" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F203" s="1">
         <v>0</v>
@@ -13056,14 +12979,14 @@
         <v>19</v>
       </c>
       <c r="J203" s="1">
-        <f t="shared" ref="J203:J204" si="17">A204</f>
+        <f t="shared" ref="J203:J205" si="16">A204</f>
         <v>203</v>
       </c>
       <c r="K203" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L203" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>19</v>
@@ -13084,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -13092,13 +13015,13 @@
         <v>5</v>
       </c>
       <c r="C204" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>105</v>
+        <v>216</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F204" s="1">
         <v>0</v>
@@ -13113,7 +13036,7 @@
         <v>19</v>
       </c>
       <c r="J204" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>204</v>
       </c>
       <c r="K204" s="1">
@@ -13141,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -13149,13 +13072,13 @@
         <v>5</v>
       </c>
       <c r="C205" s="1">
-        <v>9</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F205" s="1">
         <v>0</v>
@@ -13164,16 +13087,17 @@
         <v>0</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I205" s="22" t="s">
-        <v>305</v>
+        <v>19</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J205" s="1">
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>205</v>
       </c>
       <c r="K205" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L205" s="1">
         <v>0</v>
@@ -13205,12 +13129,12 @@
         <v>5</v>
       </c>
       <c r="C206" s="1">
-        <v>99</v>
-      </c>
-      <c r="D206" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E206" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D206" s="14"/>
+      <c r="E206" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F206" s="1">
         <v>0</v>
       </c>
@@ -13218,17 +13142,16 @@
         <v>0</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="I206" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="J206" s="1">
-        <f t="shared" ref="J206:J210" si="18">A207</f>
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="K206" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L206" s="1">
         <v>0</v>
@@ -13263,10 +13186,10 @@
         <v>5</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F207" s="1">
         <v>0</v>
@@ -13281,14 +13204,14 @@
         <v>19</v>
       </c>
       <c r="J207" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="J207:J208" si="17">A208</f>
         <v>207</v>
       </c>
       <c r="K207" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L207" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>19</v>
@@ -13317,12 +13240,14 @@
         <v>5</v>
       </c>
       <c r="C208" s="1">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E208" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="F208" s="1">
         <v>0</v>
       </c>
@@ -13336,7 +13261,7 @@
         <v>19</v>
       </c>
       <c r="J208" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>208</v>
       </c>
       <c r="K208" s="1">
@@ -13372,13 +13297,13 @@
         <v>5</v>
       </c>
       <c r="C209" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>22</v>
+        <v>88</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F209" s="1">
         <v>0</v>
@@ -13387,20 +13312,19 @@
         <v>0</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="I209" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="J209" s="1">
-        <f t="shared" si="18"/>
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="K209" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L209" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M209" s="1" t="s">
         <v>19</v>
@@ -13429,14 +13353,12 @@
         <v>5</v>
       </c>
       <c r="C210" s="1">
-        <v>5</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>105</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E210" s="3"/>
       <c r="F210" s="1">
         <v>0</v>
       </c>
@@ -13450,7 +13372,7 @@
         <v>19</v>
       </c>
       <c r="J210" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="J210:J214" si="18">A211</f>
         <v>210</v>
       </c>
       <c r="K210" s="1">
@@ -13486,13 +13408,13 @@
         <v>5</v>
       </c>
       <c r="C211" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>69</v>
+        <v>221</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F211" s="1">
         <v>0</v>
@@ -13500,13 +13422,18 @@
       <c r="G211" s="1">
         <v>0</v>
       </c>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
+      <c r="H211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J211" s="1">
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>211</v>
       </c>
       <c r="K211" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L211" s="1">
         <v>0</v>
@@ -13535,17 +13462,15 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" s="1">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E212" s="3"/>
       <c r="F212" s="1">
         <v>0</v>
       </c>
@@ -13559,7 +13484,7 @@
         <v>19</v>
       </c>
       <c r="J212" s="1">
-        <f t="shared" ref="J212:J233" si="19">A213</f>
+        <f t="shared" si="18"/>
         <v>212</v>
       </c>
       <c r="K212" s="1">
@@ -13592,38 +13517,38 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" s="1">
+        <v>5</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+      <c r="G213" s="1">
+        <v>0</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213" s="1">
+        <f t="shared" si="18"/>
+        <v>213</v>
+      </c>
+      <c r="K213" s="1">
+        <v>3</v>
+      </c>
+      <c r="L213" s="1">
         <v>4</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F213" s="1">
-        <v>0</v>
-      </c>
-      <c r="G213" s="1">
-        <v>0</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J213" s="1">
-        <f t="shared" si="19"/>
-        <v>213</v>
-      </c>
-      <c r="K213" s="1">
-        <v>0</v>
-      </c>
-      <c r="L213" s="1">
-        <v>0</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>19</v>
@@ -13649,16 +13574,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" s="1">
         <v>5</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>36</v>
+        <v>219</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="F214" s="1">
         <v>0</v>
@@ -13673,7 +13598,7 @@
         <v>19</v>
       </c>
       <c r="J214" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>214</v>
       </c>
       <c r="K214" s="1">
@@ -13706,35 +13631,32 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" s="1">
+        <v>9</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+      <c r="G215" s="1">
+        <v>0</v>
+      </c>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J215" s="1">
+        <v>0</v>
+      </c>
+      <c r="K215" s="1">
         <v>4</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F215" s="1">
-        <v>0</v>
-      </c>
-      <c r="G215" s="1">
-        <v>0</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J215" s="1">
-        <f t="shared" si="19"/>
-        <v>215</v>
-      </c>
-      <c r="K215" s="1">
-        <v>0</v>
       </c>
       <c r="L215" s="1">
         <v>0</v>
@@ -13766,13 +13688,13 @@
         <v>6</v>
       </c>
       <c r="C216" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>86</v>
+        <v>224</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F216" s="1">
         <v>0</v>
@@ -13787,7 +13709,7 @@
         <v>19</v>
       </c>
       <c r="J216" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="J216:J237" si="19">A217</f>
         <v>216</v>
       </c>
       <c r="K216" s="1">
@@ -13823,13 +13745,13 @@
         <v>6</v>
       </c>
       <c r="C217" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F217" s="1">
         <v>0</v>
@@ -13883,10 +13805,10 @@
         <v>5</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F218" s="1">
         <v>0</v>
@@ -13936,14 +13858,14 @@
       <c r="B219" s="1">
         <v>6</v>
       </c>
-      <c r="C219" s="15">
-        <v>3</v>
-      </c>
-      <c r="D219" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E219" s="7" t="s">
-        <v>69</v>
+      <c r="C219" s="1">
+        <v>4</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F219" s="1">
         <v>0</v>
@@ -13997,10 +13919,10 @@
         <v>5</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>76</v>
+        <v>228</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F220" s="1">
         <v>0</v>
@@ -14051,13 +13973,13 @@
         <v>6</v>
       </c>
       <c r="C221" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F221" s="1">
         <v>0</v>
@@ -14108,13 +14030,13 @@
         <v>6</v>
       </c>
       <c r="C222" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>69</v>
+        <v>230</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F222" s="1">
         <v>0</v>
@@ -14164,14 +14086,14 @@
       <c r="B223" s="1">
         <v>6</v>
       </c>
-      <c r="C223" s="1">
-        <v>5</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>38</v>
+      <c r="C223" s="15">
+        <v>3</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F223" s="1">
         <v>0</v>
@@ -14222,13 +14144,13 @@
         <v>6</v>
       </c>
       <c r="C224" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F224" s="1">
         <v>0</v>
@@ -14279,13 +14201,13 @@
         <v>6</v>
       </c>
       <c r="C225" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F225" s="1">
         <v>0</v>
@@ -14336,13 +14258,13 @@
         <v>6</v>
       </c>
       <c r="C226" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>53</v>
+        <v>233</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F226" s="1">
         <v>0</v>
@@ -14393,13 +14315,13 @@
         <v>6</v>
       </c>
       <c r="C227" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>86</v>
+        <v>234</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F227" s="1">
         <v>0</v>
@@ -14450,13 +14372,13 @@
         <v>6</v>
       </c>
       <c r="C228" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F228" s="1">
         <v>0</v>
@@ -14507,13 +14429,13 @@
         <v>6</v>
       </c>
       <c r="C229" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F229" s="1">
         <v>0</v>
@@ -14567,10 +14489,10 @@
         <v>5</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F230" s="1">
         <v>0</v>
@@ -14624,10 +14546,10 @@
         <v>3</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>53</v>
+        <v>238</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F231" s="1">
         <v>0</v>
@@ -14678,13 +14600,13 @@
         <v>6</v>
       </c>
       <c r="C232" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>22</v>
+        <v>239</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F232" s="1">
         <v>0</v>
@@ -14735,13 +14657,13 @@
         <v>6</v>
       </c>
       <c r="C233" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F233" s="1">
         <v>0</v>
@@ -14792,13 +14714,13 @@
         <v>6</v>
       </c>
       <c r="C234" s="1">
-        <v>3</v>
-      </c>
-      <c r="D234" s="11" t="s">
-        <v>258</v>
+        <v>5</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F234" s="1">
         <v>0</v>
@@ -14807,16 +14729,17 @@
         <v>0</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I234" s="22" t="s">
-        <v>306</v>
+        <v>19</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J234" s="1">
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>234</v>
       </c>
       <c r="K234" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L234" s="1">
         <v>0</v>
@@ -14850,11 +14773,11 @@
       <c r="C235" s="1">
         <v>3</v>
       </c>
-      <c r="D235" s="16" t="s">
-        <v>259</v>
+      <c r="D235" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F235" s="1">
         <v>0</v>
@@ -14869,7 +14792,7 @@
         <v>19</v>
       </c>
       <c r="J235" s="1">
-        <f t="shared" ref="J235:J242" si="20">A236</f>
+        <f t="shared" si="19"/>
         <v>235</v>
       </c>
       <c r="K235" s="1">
@@ -14905,12 +14828,14 @@
         <v>6</v>
       </c>
       <c r="C236" s="1">
-        <v>99</v>
-      </c>
-      <c r="D236" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E236" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F236" s="1">
         <v>0</v>
       </c>
@@ -14924,7 +14849,7 @@
         <v>19</v>
       </c>
       <c r="J236" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>236</v>
       </c>
       <c r="K236" s="1">
@@ -14960,13 +14885,13 @@
         <v>6</v>
       </c>
       <c r="C237" s="1">
-        <v>9</v>
-      </c>
-      <c r="D237" s="17" t="s">
-        <v>261</v>
+        <v>5</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F237" s="1">
         <v>0</v>
@@ -14981,7 +14906,7 @@
         <v>19</v>
       </c>
       <c r="J237" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>237</v>
       </c>
       <c r="K237" s="1">
@@ -15019,11 +14944,11 @@
       <c r="C238" s="1">
         <v>3</v>
       </c>
-      <c r="D238" s="7" t="s">
-        <v>262</v>
+      <c r="D238" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F238" s="1">
         <v>0</v>
@@ -15032,17 +14957,16 @@
         <v>0</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+      <c r="I238" s="22" t="s">
+        <v>307</v>
       </c>
       <c r="J238" s="1">
-        <f t="shared" si="20"/>
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="K238" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L238" s="1">
         <v>0</v>
@@ -15074,13 +14998,13 @@
         <v>6</v>
       </c>
       <c r="C239" s="1">
-        <v>5</v>
-      </c>
-      <c r="D239" s="7" t="s">
-        <v>263</v>
+        <v>3</v>
+      </c>
+      <c r="D239" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F239" s="1">
         <v>0</v>
@@ -15095,7 +15019,7 @@
         <v>19</v>
       </c>
       <c r="J239" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="J239:J246" si="20">A240</f>
         <v>239</v>
       </c>
       <c r="K239" s="1">
@@ -15131,14 +15055,12 @@
         <v>6</v>
       </c>
       <c r="C240" s="1">
-        <v>4</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E240" s="3"/>
       <c r="F240" s="1">
         <v>0</v>
       </c>
@@ -15188,13 +15110,13 @@
         <v>6</v>
       </c>
       <c r="C241" s="1">
-        <v>5</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>265</v>
+        <v>9</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F241" s="1">
         <v>0</v>
@@ -15245,13 +15167,13 @@
         <v>6</v>
       </c>
       <c r="C242" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F242" s="1">
         <v>0</v>
@@ -15302,13 +15224,13 @@
         <v>6</v>
       </c>
       <c r="C243" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F243" s="1">
         <v>0</v>
@@ -15323,10 +15245,11 @@
         <v>19</v>
       </c>
       <c r="J243" s="1">
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>243</v>
       </c>
       <c r="K243" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L243" s="1">
         <v>0</v>
@@ -15358,13 +15281,13 @@
         <v>6</v>
       </c>
       <c r="C244" s="1">
-        <v>5</v>
-      </c>
-      <c r="D244" s="18" t="s">
-        <v>268</v>
+        <v>4</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F244" s="1">
         <v>0</v>
@@ -15379,7 +15302,7 @@
         <v>19</v>
       </c>
       <c r="J244" s="1">
-        <f t="shared" ref="J244:J245" si="21">A245</f>
+        <f t="shared" si="20"/>
         <v>244</v>
       </c>
       <c r="K244" s="1">
@@ -15415,13 +15338,13 @@
         <v>6</v>
       </c>
       <c r="C245" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F245" s="1">
         <v>0</v>
@@ -15436,7 +15359,7 @@
         <v>19</v>
       </c>
       <c r="J245" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>245</v>
       </c>
       <c r="K245" s="1">
@@ -15472,10 +15395,10 @@
         <v>6</v>
       </c>
       <c r="C246" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>22</v>
@@ -15486,13 +15409,15 @@
       <c r="G246" s="1">
         <v>0</v>
       </c>
-      <c r="H246" s="1"/>
+      <c r="H246" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I246" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J246" s="1">
-        <f>A268</f>
-        <v>267</v>
+        <f t="shared" si="20"/>
+        <v>246</v>
       </c>
       <c r="K246" s="1">
         <v>0</v>
@@ -15527,12 +15452,14 @@
         <v>6</v>
       </c>
       <c r="C247" s="1">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E247" s="3"/>
+        <v>254</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F247" s="1">
         <v>0</v>
       </c>
@@ -15546,11 +15473,10 @@
         <v>19</v>
       </c>
       <c r="J247" s="1">
-        <f t="shared" ref="J247:J249" si="22">A248</f>
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="K247" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L247" s="1">
         <v>0</v>
@@ -15582,13 +15508,13 @@
         <v>6</v>
       </c>
       <c r="C248" s="1">
-        <v>9</v>
-      </c>
-      <c r="D248" s="7" t="s">
-        <v>272</v>
+        <v>5</v>
+      </c>
+      <c r="D248" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="F248" s="1">
         <v>0</v>
@@ -15603,7 +15529,7 @@
         <v>19</v>
       </c>
       <c r="J248" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="J248:J249" si="21">A249</f>
         <v>248</v>
       </c>
       <c r="K248" s="1">
@@ -15639,13 +15565,13 @@
         <v>6</v>
       </c>
       <c r="C249" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F249" s="1">
         <v>0</v>
@@ -15660,7 +15586,7 @@
         <v>19</v>
       </c>
       <c r="J249" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>249</v>
       </c>
       <c r="K249" s="1">
@@ -15696,10 +15622,10 @@
         <v>6</v>
       </c>
       <c r="C250" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>22</v>
@@ -15710,14 +15636,13 @@
       <c r="G250" s="1">
         <v>0</v>
       </c>
-      <c r="H250" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="H250" s="1"/>
       <c r="I250" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J250" s="1">
-        <v>0</v>
+        <f>A272</f>
+        <v>271</v>
       </c>
       <c r="K250" s="1">
         <v>5</v>
@@ -15752,14 +15677,12 @@
         <v>6</v>
       </c>
       <c r="C251" s="1">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="E251" s="3"/>
       <c r="F251" s="1">
         <v>0</v>
       </c>
@@ -15773,7 +15696,7 @@
         <v>19</v>
       </c>
       <c r="J251" s="1">
-        <f t="shared" ref="J251:J253" si="23">A252</f>
+        <f t="shared" ref="J251:J253" si="22">A252</f>
         <v>251</v>
       </c>
       <c r="K251" s="1">
@@ -15809,13 +15732,13 @@
         <v>6</v>
       </c>
       <c r="C252" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F252" s="1">
         <v>0</v>
@@ -15830,7 +15753,7 @@
         <v>19</v>
       </c>
       <c r="J252" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>252</v>
       </c>
       <c r="K252" s="1">
@@ -15866,13 +15789,13 @@
         <v>6</v>
       </c>
       <c r="C253" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F253" s="1">
         <v>0</v>
@@ -15887,7 +15810,7 @@
         <v>19</v>
       </c>
       <c r="J253" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>253</v>
       </c>
       <c r="K253" s="1">
@@ -15923,13 +15846,13 @@
         <v>6</v>
       </c>
       <c r="C254" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F254" s="1">
         <v>0</v>
@@ -15937,16 +15860,17 @@
       <c r="G254" s="1">
         <v>0</v>
       </c>
-      <c r="H254" s="1"/>
+      <c r="H254" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I254" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J254" s="1">
-        <f>A268</f>
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="K254" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L254" s="1">
         <v>0</v>
@@ -15978,12 +15902,14 @@
         <v>6</v>
       </c>
       <c r="C255" s="1">
-        <v>99</v>
-      </c>
-      <c r="D255" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E255" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F255" s="1">
         <v>0</v>
       </c>
@@ -15997,7 +15923,7 @@
         <v>19</v>
       </c>
       <c r="J255" s="1">
-        <f t="shared" ref="J255:J262" si="24">A256</f>
+        <f t="shared" ref="J255:J257" si="23">A256</f>
         <v>255</v>
       </c>
       <c r="K255" s="1">
@@ -16033,13 +15959,13 @@
         <v>6</v>
       </c>
       <c r="C256" s="1">
-        <v>9</v>
-      </c>
-      <c r="D256" s="12" t="s">
-        <v>280</v>
+        <v>4</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F256" s="1">
         <v>0</v>
@@ -16054,7 +15980,7 @@
         <v>19</v>
       </c>
       <c r="J256" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>256</v>
       </c>
       <c r="K256" s="1">
@@ -16093,10 +16019,10 @@
         <v>3</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F257" s="1">
         <v>0</v>
@@ -16111,7 +16037,7 @@
         <v>19</v>
       </c>
       <c r="J257" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>257</v>
       </c>
       <c r="K257" s="1">
@@ -16146,33 +16072,31 @@
       <c r="B258" s="1">
         <v>6</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258" s="1">
+        <v>4</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0</v>
+      </c>
+      <c r="G258" s="1">
+        <v>0</v>
+      </c>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J258" s="1">
+        <f>A272</f>
+        <v>271</v>
+      </c>
+      <c r="K258" s="1">
         <v>5</v>
-      </c>
-      <c r="D258" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F258" s="1">
-        <v>0</v>
-      </c>
-      <c r="G258" s="1">
-        <v>0</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I258" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J258" s="1">
-        <f t="shared" si="24"/>
-        <v>258</v>
-      </c>
-      <c r="K258" s="1">
-        <v>0</v>
       </c>
       <c r="L258" s="1">
         <v>0</v>
@@ -16203,15 +16127,13 @@
       <c r="B259" s="1">
         <v>6</v>
       </c>
-      <c r="C259" s="2">
-        <v>4</v>
-      </c>
-      <c r="D259" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="C259" s="1">
+        <v>99</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E259" s="3"/>
       <c r="F259" s="1">
         <v>0</v>
       </c>
@@ -16225,7 +16147,7 @@
         <v>19</v>
       </c>
       <c r="J259" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="J259:J266" si="24">A260</f>
         <v>259</v>
       </c>
       <c r="K259" s="1">
@@ -16260,14 +16182,14 @@
       <c r="B260" s="1">
         <v>6</v>
       </c>
-      <c r="C260" s="2">
-        <v>5</v>
-      </c>
-      <c r="D260" s="7" t="s">
-        <v>284</v>
+      <c r="C260" s="1">
+        <v>9</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F260" s="1">
         <v>0</v>
@@ -16321,10 +16243,10 @@
         <v>3</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F261" s="1">
         <v>0</v>
@@ -16375,13 +16297,13 @@
         <v>6</v>
       </c>
       <c r="C262" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F262" s="1">
         <v>0</v>
@@ -16432,13 +16354,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F263" s="1">
         <v>0</v>
@@ -16453,10 +16375,11 @@
         <v>19</v>
       </c>
       <c r="J263" s="1">
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>263</v>
       </c>
       <c r="K263" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L263" s="1">
         <v>0</v>
@@ -16487,14 +16410,14 @@
       <c r="B264" s="1">
         <v>6</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264" s="2">
         <v>5</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F264" s="1">
         <v>0</v>
@@ -16509,7 +16432,7 @@
         <v>19</v>
       </c>
       <c r="J264" s="1">
-        <f t="shared" ref="J264:J270" si="25">A265</f>
+        <f t="shared" si="24"/>
         <v>264</v>
       </c>
       <c r="K264" s="1">
@@ -16548,10 +16471,10 @@
         <v>3</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E265" s="5" t="s">
-        <v>86</v>
+        <v>272</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F265" s="1">
         <v>0</v>
@@ -16566,7 +16489,7 @@
         <v>19</v>
       </c>
       <c r="J265" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>265</v>
       </c>
       <c r="K265" s="1">
@@ -16601,14 +16524,14 @@
       <c r="B266" s="1">
         <v>6</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266" s="2">
         <v>4</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F266" s="1">
         <v>0</v>
@@ -16623,7 +16546,7 @@
         <v>19</v>
       </c>
       <c r="J266" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>266</v>
       </c>
       <c r="K266" s="1">
@@ -16658,11 +16581,11 @@
       <c r="B267" s="1">
         <v>6</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267" s="2">
         <v>5</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>22</v>
@@ -16680,11 +16603,10 @@
         <v>19</v>
       </c>
       <c r="J267" s="1">
-        <f t="shared" si="25"/>
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="K267" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L267" s="1">
         <v>0</v>
@@ -16712,17 +16634,17 @@
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="1">
         <v>6</v>
       </c>
-      <c r="C268" s="2">
-        <v>4</v>
+      <c r="C268" s="1">
+        <v>5</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F268" s="1">
         <v>0</v>
@@ -16737,7 +16659,7 @@
         <v>19</v>
       </c>
       <c r="J268" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="J268:J274" si="25">A269</f>
         <v>268</v>
       </c>
       <c r="K268" s="1">
@@ -16769,17 +16691,17 @@
       <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="1">
         <v>6</v>
       </c>
-      <c r="C269" s="2">
-        <v>5</v>
+      <c r="C269" s="1">
+        <v>3</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>61</v>
+        <v>276</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F269" s="1">
         <v>0</v>
@@ -16822,23 +16744,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270" s="1">
         <v>6</v>
       </c>
-      <c r="C270" s="2">
-        <v>3</v>
+      <c r="C270" s="1">
+        <v>4</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F270" s="2">
+        <v>64</v>
+      </c>
+      <c r="F270" s="1">
         <v>0</v>
       </c>
       <c r="G270" s="1">
@@ -16883,19 +16805,19 @@
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="1">
         <v>6</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271" s="1">
         <v>5</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F271" s="2">
+        <v>22</v>
+      </c>
+      <c r="F271" s="1">
         <v>0</v>
       </c>
       <c r="G271" s="1">
@@ -16904,14 +16826,15 @@
       <c r="H271" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I271" s="22" t="s">
-        <v>307</v>
+      <c r="I271" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J271" s="1">
-        <v>0</v>
+        <f>A272</f>
+        <v>271</v>
       </c>
       <c r="K271" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L271" s="1">
         <v>0</v>
@@ -16935,24 +16858,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C272" s="2">
-        <v>1</v>
-      </c>
-      <c r="D272" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="E272" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E272" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F272" s="2">
-        <v>1</v>
+      <c r="F272" s="1">
+        <v>0</v>
       </c>
       <c r="G272" s="1">
         <v>0</v>
@@ -16964,8 +16887,8 @@
         <v>19</v>
       </c>
       <c r="J272" s="1">
-        <f>A275</f>
-        <v>274</v>
+        <f t="shared" si="25"/>
+        <v>272</v>
       </c>
       <c r="K272" s="1">
         <v>0</v>
@@ -16997,19 +16920,19 @@
         <v>272</v>
       </c>
       <c r="B273" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C273" s="2">
-        <v>1</v>
-      </c>
-      <c r="D273" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="E273" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F273" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F273" s="1">
+        <v>0</v>
       </c>
       <c r="G273" s="1">
         <v>0</v>
@@ -17021,8 +16944,8 @@
         <v>19</v>
       </c>
       <c r="J273" s="1">
-        <f>A275</f>
-        <v>274</v>
+        <f t="shared" si="25"/>
+        <v>273</v>
       </c>
       <c r="K273" s="1">
         <v>0</v>
@@ -17049,24 +16972,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C274" s="2">
-        <v>1</v>
-      </c>
-      <c r="D274" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E274" s="20" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F274" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G274" s="1">
         <v>0</v>
@@ -17078,7 +17001,7 @@
         <v>19</v>
       </c>
       <c r="J274" s="1">
-        <f>A275</f>
+        <f t="shared" si="25"/>
         <v>274</v>
       </c>
       <c r="K274" s="1">
@@ -17111,134 +17034,281 @@
         <v>274</v>
       </c>
       <c r="B275" s="2">
+        <v>6</v>
+      </c>
+      <c r="C275" s="2">
+        <v>5</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F275" s="2">
+        <v>0</v>
+      </c>
+      <c r="G275" s="1">
+        <v>0</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I275" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="J275" s="1">
+        <v>0</v>
+      </c>
+      <c r="K275" s="1">
+        <v>3</v>
+      </c>
+      <c r="L275" s="1">
+        <v>5</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N275" s="1">
+        <v>0</v>
+      </c>
+      <c r="O275" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P275" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q275" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="2">
+        <v>7</v>
+      </c>
+      <c r="C276" s="2">
         <v>1</v>
       </c>
-      <c r="C275" s="2">
+      <c r="D276" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E276" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F276" s="2">
+        <v>1</v>
+      </c>
+      <c r="G276" s="1">
+        <v>0</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J276" s="1">
+        <f>A279</f>
+        <v>278</v>
+      </c>
+      <c r="K276" s="1">
+        <v>0</v>
+      </c>
+      <c r="L276" s="1">
+        <v>0</v>
+      </c>
+      <c r="M276" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N276" s="1">
+        <v>0</v>
+      </c>
+      <c r="O276" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P276" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q276" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="2">
+        <v>7</v>
+      </c>
+      <c r="C277" s="2">
+        <v>1</v>
+      </c>
+      <c r="D277" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277" s="2">
+        <v>1</v>
+      </c>
+      <c r="G277" s="1">
+        <v>0</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J277" s="1">
+        <f>A279</f>
+        <v>278</v>
+      </c>
+      <c r="K277" s="1">
+        <v>0</v>
+      </c>
+      <c r="L277" s="1">
+        <v>0</v>
+      </c>
+      <c r="M277" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N277" s="1">
+        <v>0</v>
+      </c>
+      <c r="O277" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P277" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q277" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="2">
+        <v>7</v>
+      </c>
+      <c r="C278" s="2">
+        <v>1</v>
+      </c>
+      <c r="D278" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E278" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F278" s="2">
+        <v>1</v>
+      </c>
+      <c r="G278" s="1">
+        <v>0</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J278" s="1">
+        <f>A279</f>
+        <v>278</v>
+      </c>
+      <c r="K278" s="1">
+        <v>0</v>
+      </c>
+      <c r="L278" s="1">
+        <v>0</v>
+      </c>
+      <c r="M278" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N278" s="1">
+        <v>0</v>
+      </c>
+      <c r="O278" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P278" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q278" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="2">
+        <v>7</v>
+      </c>
+      <c r="C279" s="2">
         <v>100</v>
       </c>
-      <c r="D275" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2">
-        <v>0</v>
-      </c>
-      <c r="G275" s="1">
-        <v>0</v>
-      </c>
-      <c r="H275" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I275" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J275" s="1">
-        <v>0</v>
-      </c>
-      <c r="K275" s="1">
+      <c r="D279" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2">
+        <v>0</v>
+      </c>
+      <c r="G279" s="1">
+        <v>0</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J279" s="1">
+        <v>0</v>
+      </c>
+      <c r="K279" s="1">
         <v>2</v>
       </c>
-      <c r="L275" s="1">
-        <v>0</v>
-      </c>
-      <c r="M275" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N275" s="1">
-        <v>0</v>
-      </c>
-      <c r="O275" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P275" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q275" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R275" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
-      <c r="O276" s="2"/>
-      <c r="P276" s="2"/>
-      <c r="Q276" s="2"/>
-      <c r="R276" s="2"/>
-    </row>
-    <row r="277" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2"/>
-      <c r="K277" s="2"/>
-      <c r="L277" s="2"/>
-      <c r="M277" s="2"/>
-      <c r="N277" s="2"/>
-      <c r="O277" s="2"/>
-      <c r="P277" s="2"/>
-      <c r="Q277" s="2"/>
-      <c r="R277" s="2"/>
-    </row>
-    <row r="278" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="1"/>
-      <c r="E278" s="2"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2"/>
-      <c r="L278" s="2"/>
-      <c r="M278" s="2"/>
-      <c r="N278" s="2"/>
-      <c r="O278" s="2"/>
-      <c r="P278" s="2"/>
-      <c r="Q278" s="2"/>
-      <c r="R278" s="2"/>
-    </row>
-    <row r="279" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="2"/>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
-      <c r="J279" s="2"/>
-      <c r="K279" s="2"/>
-      <c r="L279" s="2"/>
-      <c r="M279" s="2"/>
-      <c r="N279" s="2"/>
-      <c r="O279" s="2"/>
-      <c r="P279" s="2"/>
-      <c r="Q279" s="2"/>
-      <c r="R279" s="2"/>
+      <c r="L279" s="1">
+        <v>0</v>
+      </c>
+      <c r="M279" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N279" s="1">
+        <v>0</v>
+      </c>
+      <c r="O279" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P279" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q279" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R279" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
@@ -32000,7 +32070,88 @@
       <c r="Q1017" s="2"/>
       <c r="R1017" s="2"/>
     </row>
+    <row r="1018" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="2"/>
+      <c r="B1018" s="2"/>
+      <c r="C1018" s="2"/>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="2"/>
+      <c r="F1018" s="2"/>
+      <c r="G1018" s="2"/>
+      <c r="H1018" s="2"/>
+      <c r="I1018" s="2"/>
+      <c r="J1018" s="2"/>
+      <c r="K1018" s="2"/>
+      <c r="L1018" s="2"/>
+      <c r="M1018" s="2"/>
+      <c r="N1018" s="2"/>
+      <c r="O1018" s="2"/>
+      <c r="P1018" s="2"/>
+      <c r="Q1018" s="2"/>
+      <c r="R1018" s="2"/>
+    </row>
+    <row r="1019" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1019" s="2"/>
+      <c r="B1019" s="2"/>
+      <c r="C1019" s="2"/>
+      <c r="D1019" s="1"/>
+      <c r="E1019" s="2"/>
+      <c r="F1019" s="2"/>
+      <c r="G1019" s="2"/>
+      <c r="H1019" s="2"/>
+      <c r="I1019" s="2"/>
+      <c r="J1019" s="2"/>
+      <c r="K1019" s="2"/>
+      <c r="L1019" s="2"/>
+      <c r="M1019" s="2"/>
+      <c r="N1019" s="2"/>
+      <c r="O1019" s="2"/>
+      <c r="P1019" s="2"/>
+      <c r="Q1019" s="2"/>
+      <c r="R1019" s="2"/>
+    </row>
+    <row r="1020" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1020" s="2"/>
+      <c r="B1020" s="2"/>
+      <c r="C1020" s="2"/>
+      <c r="D1020" s="1"/>
+      <c r="E1020" s="2"/>
+      <c r="F1020" s="2"/>
+      <c r="G1020" s="2"/>
+      <c r="H1020" s="2"/>
+      <c r="I1020" s="2"/>
+      <c r="J1020" s="2"/>
+      <c r="K1020" s="2"/>
+      <c r="L1020" s="2"/>
+      <c r="M1020" s="2"/>
+      <c r="N1020" s="2"/>
+      <c r="O1020" s="2"/>
+      <c r="P1020" s="2"/>
+      <c r="Q1020" s="2"/>
+      <c r="R1020" s="2"/>
+    </row>
+    <row r="1021" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="2"/>
+      <c r="B1021" s="2"/>
+      <c r="C1021" s="2"/>
+      <c r="D1021" s="1"/>
+      <c r="E1021" s="2"/>
+      <c r="F1021" s="2"/>
+      <c r="G1021" s="2"/>
+      <c r="H1021" s="2"/>
+      <c r="I1021" s="2"/>
+      <c r="J1021" s="2"/>
+      <c r="K1021" s="2"/>
+      <c r="L1021" s="2"/>
+      <c r="M1021" s="2"/>
+      <c r="N1021" s="2"/>
+      <c r="O1021" s="2"/>
+      <c r="P1021" s="2"/>
+      <c r="Q1021" s="2"/>
+      <c r="R1021" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:R279"/>
   <customSheetViews>
     <customSheetView guid="{7E4B503C-929B-4D1F-A3E9-11A4D172D459}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelData/Dialogue.xlsx
+++ b/ExcelData/Dialogue.xlsx
@@ -7,11 +7,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$R$282</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_70811F2A_A53B_4D57_9481_DDFCB16C9D87_.wvu.FilterData">Sheet1!$A$1:$Q$249</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_52D157E1_7744_49A5_9F2C_B050B8BBDAC1_.wvu.FilterData">Sheet1!$A$1:$Q$249</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{70811F2A-A53B-4D57-9481-DDFCB16C9D87}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{52D157E1-7744-49A5-9F2C-B050B8BBDAC1}" name="Filter 1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -233,10 +233,10 @@
     <t xml:space="preserve">C    AWESOME!!! I’m ready! Let’s go! </t>
   </si>
   <si>
-    <t>Biobots are living robots that grow in different ways, based on the human they are paired with. When they spend time with us, they change to suit our personality and needs. For example, my Biobot, T.O.G.A, has grown an extra pair of strong arms to help carry huge stacks of research books with me. With a bit of training, you and your Biobot will make the perfect team!</t>
+    <t>Biobots are living robots that grow in different ways, based on the human they are paired with. When they spend time with us, they change to suit our personality and needs. For example, my Biobot, T.O.G.A, has grown an extra pair of strong arms to help carry huge stacks of research books with me.</t>
   </si>
   <si>
-    <t>Biobot training of course! Your mission at this academy is to help us study Biobots by training one and observing its changes. They evolve by seeing the way you act and interact with others. You’re here because you show great potential to join an elite rescue force of humans and Biobots known as the Bioknights. There’s only one way to find out if that’s true. Train a Biobot here at the academy and show us what you’ve got.</t>
+    <t>Biobot training of course! Your mission is to help us study Biobots by training one and observing its changes. You see, they evolve by seeing the way you act and interact with others. Train a Biobot here at the academy and show us what you’ve got. Who knows? Maybe you could even join the Bioknights...</t>
   </si>
   <si>
     <t>What do you think? Ready to create your Biobot and begin your training?</t>
@@ -1106,23 +1106,21 @@
     <t>276|278|280</t>
   </si>
   <si>
-    <t xml:space="preserve">Wow! It looks like R.E.M.I has received the best upgrades! No doubt they will come in handy for future missions! You must have solved a bunch of obstacles, showing a great deal of skills and it shows on your Biobot! </t>
+    <t>Wow! It looks like R.E.M.I has received advanced upgrades! No doubt they will come in handy for future missions! You must have solved a bunch of obstacles, using a great deal of skills and it shows on your Biobot! Don’t forget that you’ll need to keep solving problems, be supportive, and work with your team to complete missions as a Bioknight!</t>
   </si>
   <si>
     <t xml:space="preserve">Don’t forget that you’ll need to keep solving problems, be supportive, and work with your team to complete missions as a Bioknight! 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Okay! I see R.E.M.I has picked up some good upgrades! It looks like you’ve done a few good deeds today! You may have solved some difficult situations, but it appears you might have avoided some others!
-</t>
+    <t>Okay! I see R.E.M.I has picked up some good upgrades! It looks like you’ve done a few good deeds today! You may have solved some difficult situations, but it appears you might have avoided some others! Right now, your Biobot got intermediate upgrades. There is still more you can do to improve!</t>
   </si>
   <si>
     <t xml:space="preserve">There is still more to discover. Remember: You’ll need to solve problems, be supportive and work with your team to complete missions as a Bioknight! 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Interesting… It looks like R.E.M.I has picked up a few things that may not be helpful when working with others. You could try and spend a little more time thinking about your actions before making decisions. This will help R.E.M.I gain even better upgrades next time!
-</t>
+    <t>Interesting… It looks like R.E.M.I has picked up a few things that may not be helpful when working with others. Your biobot got beginner upgrades! You could try and spend a little more time thinking about your actions before making decisions. This will help R.E.M.I gain even better upgrades next time!</t>
   </si>
   <si>
     <t xml:space="preserve">Some of these situations could have happened in your own life, don’t you think? Now, let’s finish by setting some goals of things that you can do to improve in your own life. </t>
@@ -1170,7 +1168,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,6 +1179,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1202,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1244,7 +1248,14 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -17104,7 +17115,7 @@
       <c r="D277" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="E277" s="19" t="s">
+      <c r="E277" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F277" s="12">
@@ -17158,10 +17169,10 @@
       <c r="C278" s="12">
         <v>1.0</v>
       </c>
-      <c r="D278" s="19" t="s">
+      <c r="D278" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="E278" s="19" t="s">
+      <c r="E278" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F278" s="12">
@@ -17218,7 +17229,7 @@
       <c r="D279" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="E279" s="19" t="s">
+      <c r="E279" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F279" s="12">
@@ -17272,10 +17283,10 @@
       <c r="C280" s="12">
         <v>1.0</v>
       </c>
-      <c r="D280" s="19" t="s">
+      <c r="D280" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="E280" s="19" t="s">
+      <c r="E280" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F280" s="12">
@@ -17329,10 +17340,10 @@
       <c r="C281" s="12">
         <v>1.0</v>
       </c>
-      <c r="D281" s="19" t="s">
+      <c r="D281" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="E281" s="19" t="s">
+      <c r="E281" s="20" t="s">
         <v>37</v>
       </c>
       <c r="F281" s="12">
@@ -17386,7 +17397,7 @@
       <c r="C282" s="12">
         <v>100.0</v>
       </c>
-      <c r="D282" s="20" t="s">
+      <c r="D282" s="23" t="s">
         <v>314</v>
       </c>
       <c r="E282" s="12"/>
@@ -32273,7 +32284,7 @@
   </sheetData>
   <autoFilter ref="$A$1:$R$282"/>
   <customSheetViews>
-    <customSheetView guid="{70811F2A-A53B-4D57-9481-DDFCB16C9D87}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{52D157E1-7744-49A5-9F2C-B050B8BBDAC1}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$Q$249"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">

--- a/ExcelData/Dialogue.xlsx
+++ b/ExcelData/Dialogue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\REMI2\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C125380-F4EA-46BC-AE1B-E61F830BE844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72237743-7194-4C4C-BD06-598CC4F5AF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$282</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$1024</definedName>
     <definedName name="Z_52D157E1_7744_49A5_9F2C_B050B8BBDAC1_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -54,6 +54,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAANdPSoGU
@@ -75,6 +76,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">======
 ID#AAAANdPSoGY
@@ -97,6 +99,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAANdPSoGc
@@ -112,6 +115,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAANgbQHWo
@@ -127,6 +131,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAANgDw7_E
@@ -142,6 +147,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAANk-C87k
@@ -157,6 +163,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAANgDw7_M
@@ -172,6 +179,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAANk-C87g
@@ -187,6 +195,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAANgDw7_g
@@ -205,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="319">
   <si>
     <t>ID</t>
   </si>
@@ -290,6 +299,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>B    AWESOME!!!</t>
     </r>
@@ -299,6 +309,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -307,6 +318,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>What kind of training?</t>
     </r>
@@ -337,9 +349,6 @@
   </si>
   <si>
     <t>Let’s start with your talents. What three things on this list do you think you are good at?</t>
-  </si>
-  <si>
-    <t>Thinking</t>
   </si>
   <si>
     <t>Wow! I’m impressed! You have some useful talents there. Your Biobot will learn a lot from you!</t>
@@ -548,6 +557,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Right!? Great minds think alike!</t>
     </r>
@@ -557,6 +567,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1093,6 +1104,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t> </t>
     </r>
@@ -1101,6 +1113,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Woohoo!! They made it!!! </t>
     </r>
@@ -1208,13 +1221,28 @@
   </si>
   <si>
     <t>SceneID</t>
+  </si>
+  <si>
+    <t>Think</t>
+  </si>
+  <si>
+    <t>Eyeroll_Juice</t>
+  </si>
+  <si>
+    <t>Angry_Juice</t>
+  </si>
+  <si>
+    <t>Unamused_Juice</t>
+  </si>
+  <si>
+    <t>Happy_Juice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1224,35 +1252,53 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF6AA84F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF9900"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1277,8 +1323,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1293,11 +1345,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1322,6 +1389,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1540,8 +1619,8 @@
   <dimension ref="A1:R1024"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="A20:XFD20"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2261,7 +2340,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2314,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2371,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -2427,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -2507,21 +2586,21 @@
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" s="2">
         <f>A18</f>
         <v>17</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17" s="2">
         <f>A18</f>
         <v>17</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R17" s="1">
         <f>A18</f>
@@ -2539,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
@@ -2596,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
@@ -2674,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -2709,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -2789,21 +2868,21 @@
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N22" s="2">
         <f>A23</f>
         <v>22</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P22" s="2">
         <f>A23</f>
         <v>22</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R22" s="1">
         <f>A23</f>
@@ -2821,7 +2900,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -2867,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2878,7 +2957,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1">
@@ -2922,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2933,10 +3012,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2979,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2990,10 +3069,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -3036,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3047,10 +3126,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -3093,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3104,10 +3183,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -3150,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3161,10 +3240,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -3207,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3218,10 +3297,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -3264,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3275,10 +3354,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -3321,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3332,10 +3411,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -3378,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3389,10 +3468,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -3435,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3446,10 +3525,10 @@
         <v>3</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>314</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -3492,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3503,10 +3582,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -3549,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3560,10 +3639,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -3606,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3617,10 +3696,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -3663,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3674,10 +3753,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -3720,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3731,10 +3810,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -3777,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3788,10 +3867,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -3834,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3845,9 +3924,9 @@
         <v>3</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="1">
@@ -3891,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3902,10 +3981,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>314</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -3948,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3959,9 +4038,9 @@
         <v>5</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F43" s="1">
@@ -4005,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4016,10 +4095,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -4062,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4073,10 +4152,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -4119,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4130,10 +4209,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -4176,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4187,22 +4266,22 @@
         <v>3</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
@@ -4232,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4243,9 +4322,9 @@
         <v>99</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E48" s="17"/>
       <c r="F48" s="1">
         <v>0</v>
       </c>
@@ -4287,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4298,10 +4377,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -4344,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4355,10 +4434,10 @@
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -4401,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4412,10 +4491,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>22</v>
+        <v>84</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -4458,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4469,10 +4548,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -4515,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4526,10 +4605,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>38</v>
+        <v>87</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -4572,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4583,10 +4662,10 @@
         <v>4</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -4629,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4640,10 +4719,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -4686,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4697,10 +4776,10 @@
         <v>4</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -4743,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4754,9 +4833,9 @@
         <v>99</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="E57" s="17"/>
       <c r="F57" s="1">
         <v>0</v>
       </c>
@@ -4798,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4809,9 +4888,9 @@
         <v>99</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="E58" s="17"/>
       <c r="F58" s="1">
         <v>0</v>
       </c>
@@ -4853,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4864,10 +4943,10 @@
         <v>4</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -4921,7 +5000,7 @@
         <v>99</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="1">
@@ -4965,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4976,7 +5055,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>22</v>
@@ -5022,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5033,10 +5112,10 @@
         <v>4</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -5079,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5090,10 +5169,10 @@
         <v>5</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -5136,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5147,10 +5226,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -5193,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5204,10 +5283,10 @@
         <v>5</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -5250,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5261,10 +5340,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -5307,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="15.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5318,9 +5397,9 @@
         <v>99</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E67" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E67" s="17"/>
       <c r="F67" s="1">
         <v>0</v>
       </c>
@@ -5362,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5373,10 +5452,10 @@
         <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -5419,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5430,9 +5509,9 @@
         <v>3</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F69" s="1">
@@ -5476,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5487,9 +5566,9 @@
         <v>99</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E70" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="E70" s="17"/>
       <c r="F70" s="1">
         <v>0</v>
       </c>
@@ -5531,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5542,10 +5621,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -5588,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5599,10 +5678,10 @@
         <v>4</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -5645,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5656,10 +5735,10 @@
         <v>4</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -5702,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5713,10 +5792,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>76</v>
+        <v>109</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -5759,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="15.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="15.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5770,10 +5849,10 @@
         <v>4</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -5827,7 +5906,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>22</v>
@@ -5884,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -5941,7 +6020,7 @@
         <v>99</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1">
@@ -5996,7 +6075,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>22</v>
@@ -6053,10 +6132,10 @@
         <v>6</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -6110,7 +6189,7 @@
         <v>99</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="1">
@@ -6165,10 +6244,10 @@
         <v>6</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -6222,7 +6301,7 @@
         <v>99</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="1">
@@ -6334,7 +6413,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>22</v>
@@ -6391,10 +6470,10 @@
         <v>4</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -6448,10 +6527,10 @@
         <v>3</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -6505,10 +6584,10 @@
         <v>4</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -6562,10 +6641,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -6619,10 +6698,10 @@
         <v>4</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -6676,22 +6755,22 @@
         <v>9</v>
       </c>
       <c r="D91" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F91" s="1">
-        <v>0</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0</v>
-      </c>
-      <c r="H91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="J91" s="1">
         <v>0</v>
@@ -6732,10 +6811,10 @@
         <v>3</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -6789,10 +6868,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -6846,10 +6925,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -6903,22 +6982,22 @@
         <v>4</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F95" s="1">
-        <v>0</v>
-      </c>
-      <c r="G95" s="1">
-        <v>0</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -6959,7 +7038,7 @@
         <v>99</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="1">
@@ -7014,10 +7093,10 @@
         <v>5</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -7071,7 +7150,7 @@
         <v>99</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="1">
@@ -7126,10 +7205,10 @@
         <v>9</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -7183,10 +7262,10 @@
         <v>5</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -7240,7 +7319,7 @@
         <v>99</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="1">
@@ -7295,10 +7374,10 @@
         <v>5</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -7352,7 +7431,7 @@
         <v>99</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="1">
@@ -7407,10 +7486,10 @@
         <v>5</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -7464,10 +7543,10 @@
         <v>5</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -7521,7 +7600,7 @@
         <v>99</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="1">
@@ -7576,10 +7655,10 @@
         <v>5</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -7633,22 +7712,22 @@
         <v>9</v>
       </c>
       <c r="D108" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F108" s="1">
-        <v>0</v>
-      </c>
-      <c r="G108" s="1">
-        <v>0</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="J108" s="1">
         <v>0</v>
@@ -7689,7 +7768,7 @@
         <v>99</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="1">
@@ -7744,7 +7823,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>22</v>
@@ -7801,7 +7880,7 @@
         <v>99</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="1">
@@ -7856,10 +7935,10 @@
         <v>9</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -7913,10 +7992,10 @@
         <v>4</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -7970,7 +8049,7 @@
         <v>99</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="1">
@@ -8025,10 +8104,10 @@
         <v>4</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -8082,10 +8161,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -8139,7 +8218,7 @@
         <v>99</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="1">
@@ -8194,10 +8273,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
@@ -8251,7 +8330,7 @@
         <v>99</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="1">
@@ -8306,10 +8385,10 @@
         <v>4</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
@@ -8318,10 +8397,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J120" s="1">
         <v>0</v>
@@ -8362,7 +8441,7 @@
         <v>99</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="1">
@@ -8417,10 +8496,10 @@
         <v>4</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -8474,7 +8553,7 @@
         <v>99</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="1">
@@ -8529,10 +8608,10 @@
         <v>4</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
@@ -8586,7 +8665,7 @@
         <v>99</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="1">
@@ -8641,10 +8720,10 @@
         <v>4</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -8698,7 +8777,7 @@
         <v>99</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="1">
@@ -8753,10 +8832,10 @@
         <v>4</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -8810,10 +8889,10 @@
         <v>3</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
@@ -8867,7 +8946,7 @@
         <v>99</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="1">
@@ -8922,10 +9001,10 @@
         <v>4</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F131" s="1">
         <v>0</v>
@@ -8979,7 +9058,7 @@
         <v>99</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="1">
@@ -9034,10 +9113,10 @@
         <v>9</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -9090,7 +9169,7 @@
         <v>4</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>22</v>
@@ -9146,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>22</v>
@@ -9260,10 +9339,10 @@
         <v>4</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -9317,10 +9396,10 @@
         <v>3</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
@@ -9374,10 +9453,10 @@
         <v>4</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
@@ -9431,10 +9510,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
@@ -9488,10 +9567,10 @@
         <v>4</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F141" s="1">
         <v>0</v>
@@ -9545,10 +9624,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F142" s="1">
         <v>0</v>
@@ -9602,10 +9681,10 @@
         <v>8</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F143" s="1">
         <v>0</v>
@@ -9659,10 +9738,10 @@
         <v>4</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F144" s="1">
         <v>0</v>
@@ -9716,10 +9795,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F145" s="1">
         <v>0</v>
@@ -9773,10 +9852,10 @@
         <v>5</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F146" s="1">
         <v>0</v>
@@ -9830,10 +9909,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F147" s="1">
         <v>0</v>
@@ -9887,10 +9966,10 @@
         <v>4</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F148" s="1">
         <v>0</v>
@@ -9944,10 +10023,10 @@
         <v>3</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F149" s="1">
         <v>0</v>
@@ -10001,10 +10080,10 @@
         <v>4</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F150" s="1">
         <v>0</v>
@@ -10058,10 +10137,10 @@
         <v>3</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F151" s="1">
         <v>0</v>
@@ -10070,10 +10149,10 @@
         <v>0</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J151" s="1">
         <v>0</v>
@@ -10114,7 +10193,7 @@
         <v>99</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="1">
@@ -10169,10 +10248,10 @@
         <v>5</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F153" s="1">
         <v>0</v>
@@ -10226,7 +10305,7 @@
         <v>99</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="1">
@@ -10281,10 +10360,10 @@
         <v>9</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F155" s="1">
         <v>0</v>
@@ -10338,10 +10417,10 @@
         <v>3</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F156" s="1">
         <v>0</v>
@@ -10395,10 +10474,10 @@
         <v>4</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F157" s="1">
         <v>0</v>
@@ -10452,10 +10531,10 @@
         <v>3</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F158" s="1">
         <v>0</v>
@@ -10509,7 +10588,7 @@
         <v>4</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>22</v>
@@ -10521,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J159" s="1">
         <v>0</v>
@@ -10565,7 +10644,7 @@
         <v>99</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="1">
@@ -10620,10 +10699,10 @@
         <v>4</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F161" s="1">
         <v>0</v>
@@ -10677,10 +10756,10 @@
         <v>3</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F162" s="1">
         <v>0</v>
@@ -10734,10 +10813,10 @@
         <v>5</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F163" s="1">
         <v>0</v>
@@ -10791,7 +10870,7 @@
         <v>99</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="1">
@@ -10846,10 +10925,10 @@
         <v>8</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F165" s="1">
         <v>0</v>
@@ -10903,7 +10982,7 @@
         <v>99</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="1">
@@ -10958,10 +11037,10 @@
         <v>8</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F167" s="1">
         <v>0</v>
@@ -11015,7 +11094,7 @@
         <v>99</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="1">
@@ -11070,10 +11149,10 @@
         <v>8</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F169" s="1">
         <v>0</v>
@@ -11127,7 +11206,7 @@
         <v>99</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="1">
@@ -11182,10 +11261,10 @@
         <v>8</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F171" s="1">
         <v>0</v>
@@ -11239,7 +11318,7 @@
         <v>99</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="1">
@@ -11294,10 +11373,10 @@
         <v>8</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F173" s="1">
         <v>0</v>
@@ -11351,7 +11430,7 @@
         <v>99</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="1">
@@ -11406,10 +11485,10 @@
         <v>8</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F175" s="1">
         <v>0</v>
@@ -11463,7 +11542,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>22</v>
@@ -11475,10 +11554,10 @@
         <v>0</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J176" s="1">
         <v>0</v>
@@ -11519,7 +11598,7 @@
         <v>99</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="1">
@@ -11574,10 +11653,10 @@
         <v>9</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F178" s="1">
         <v>0</v>
@@ -11631,10 +11710,10 @@
         <v>3</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F179" s="1">
         <v>0</v>
@@ -11688,10 +11767,10 @@
         <v>4</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F180" s="1">
         <v>0</v>
@@ -11745,10 +11824,10 @@
         <v>3</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F181" s="1">
         <v>0</v>
@@ -11802,10 +11881,10 @@
         <v>4</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F182" s="1">
         <v>0</v>
@@ -11858,10 +11937,10 @@
         <v>3</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F183" s="1">
         <v>0</v>
@@ -11915,10 +11994,10 @@
         <v>4</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F184" s="1">
         <v>0</v>
@@ -11972,10 +12051,10 @@
         <v>3</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F185" s="1">
         <v>0</v>
@@ -12029,10 +12108,10 @@
         <v>3</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F186" s="1">
         <v>0</v>
@@ -12086,10 +12165,10 @@
         <v>4</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F187" s="1">
         <v>0</v>
@@ -12142,10 +12221,10 @@
         <v>4</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F188" s="1">
         <v>0</v>
@@ -12199,7 +12278,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>22</v>
@@ -12256,10 +12335,10 @@
         <v>5</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F190" s="1">
         <v>0</v>
@@ -12313,10 +12392,10 @@
         <v>4</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F191" s="1">
         <v>0</v>
@@ -12370,10 +12449,10 @@
         <v>4</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F192" s="1">
         <v>0</v>
@@ -12427,10 +12506,10 @@
         <v>5</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F193" s="1">
         <v>0</v>
@@ -12484,10 +12563,10 @@
         <v>3</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F194" s="1">
         <v>0</v>
@@ -12541,10 +12620,10 @@
         <v>4</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F195" s="1">
         <v>0</v>
@@ -12598,22 +12677,22 @@
         <v>5</v>
       </c>
       <c r="D196" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0</v>
+      </c>
+      <c r="G196" s="1">
+        <v>0</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I196" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F196" s="1">
-        <v>0</v>
-      </c>
-      <c r="G196" s="1">
-        <v>0</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="J196" s="1">
         <v>0</v>
@@ -12654,7 +12733,7 @@
         <v>99</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="1">
@@ -12709,10 +12788,10 @@
         <v>5</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F198" s="1">
         <v>0</v>
@@ -12766,7 +12845,7 @@
         <v>99</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="1">
@@ -12821,10 +12900,10 @@
         <v>5</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F200" s="1">
         <v>0</v>
@@ -12878,7 +12957,7 @@
         <v>99</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="1">
@@ -12933,7 +13012,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>22</v>
@@ -12990,7 +13069,7 @@
         <v>99</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="1">
@@ -13044,7 +13123,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>22</v>
@@ -13101,10 +13180,10 @@
         <v>4</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F205" s="1">
         <v>0</v>
@@ -13158,7 +13237,7 @@
         <v>3</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>22</v>
@@ -13215,7 +13294,7 @@
         <v>9</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>22</v>
@@ -13227,10 +13306,10 @@
         <v>0</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J207" s="1">
         <v>0</v>
@@ -13271,10 +13350,10 @@
         <v>5</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F208" s="1">
         <v>0</v>
@@ -13328,10 +13407,10 @@
         <v>5</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F209" s="1">
         <v>0</v>
@@ -13385,10 +13464,10 @@
         <v>9</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F210" s="1">
         <v>0</v>
@@ -13397,10 +13476,10 @@
         <v>0</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J210" s="1">
         <v>0</v>
@@ -13441,7 +13520,7 @@
         <v>99</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="1">
@@ -13496,10 +13575,10 @@
         <v>5</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F212" s="1">
         <v>0</v>
@@ -13553,7 +13632,7 @@
         <v>99</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="1">
@@ -13608,7 +13687,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>22</v>
@@ -13665,10 +13744,10 @@
         <v>5</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F215" s="1">
         <v>0</v>
@@ -13722,10 +13801,10 @@
         <v>9</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F216" s="1">
         <v>0</v>
@@ -13776,10 +13855,10 @@
         <v>3</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F217" s="1">
         <v>0</v>
@@ -13833,10 +13912,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F218" s="1">
         <v>0</v>
@@ -13890,10 +13969,10 @@
         <v>5</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F219" s="1">
         <v>0</v>
@@ -13947,10 +14026,10 @@
         <v>4</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F220" s="1">
         <v>0</v>
@@ -14004,10 +14083,10 @@
         <v>5</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F221" s="1">
         <v>0</v>
@@ -14061,10 +14140,10 @@
         <v>5</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F222" s="1">
         <v>0</v>
@@ -14118,10 +14197,10 @@
         <v>5</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F223" s="1">
         <v>0</v>
@@ -14175,10 +14254,10 @@
         <v>3</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F224" s="1">
         <v>0</v>
@@ -14232,10 +14311,10 @@
         <v>5</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F225" s="1">
         <v>0</v>
@@ -14289,10 +14368,10 @@
         <v>3</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F226" s="1">
         <v>0</v>
@@ -14346,10 +14425,10 @@
         <v>4</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F227" s="1">
         <v>0</v>
@@ -14403,10 +14482,10 @@
         <v>5</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F228" s="1">
         <v>0</v>
@@ -14460,10 +14539,10 @@
         <v>4</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F229" s="1">
         <v>0</v>
@@ -14517,7 +14596,7 @@
         <v>5</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>22</v>
@@ -14574,10 +14653,10 @@
         <v>5</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F231" s="1">
         <v>0</v>
@@ -14631,10 +14710,10 @@
         <v>3</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F232" s="1">
         <v>0</v>
@@ -14688,10 +14767,10 @@
         <v>5</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F233" s="1">
         <v>0</v>
@@ -14745,10 +14824,10 @@
         <v>3</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F234" s="1">
         <v>0</v>
@@ -14802,10 +14881,10 @@
         <v>5</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F235" s="1">
         <v>0</v>
@@ -14859,10 +14938,10 @@
         <v>3</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F236" s="1">
         <v>0</v>
@@ -14916,7 +14995,7 @@
         <v>4</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>22</v>
@@ -14973,10 +15052,10 @@
         <v>5</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F238" s="1">
         <v>0</v>
@@ -15030,22 +15109,22 @@
         <v>3</v>
       </c>
       <c r="D239" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0</v>
+      </c>
+      <c r="G239" s="1">
+        <v>0</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I239" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F239" s="1">
-        <v>0</v>
-      </c>
-      <c r="G239" s="1">
-        <v>0</v>
-      </c>
-      <c r="H239" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I239" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="J239" s="1">
         <v>0</v>
@@ -15086,10 +15165,10 @@
         <v>3</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F240" s="1">
         <v>0</v>
@@ -15143,7 +15222,7 @@
         <v>99</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="1">
@@ -15198,10 +15277,10 @@
         <v>9</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F242" s="1">
         <v>0</v>
@@ -15255,10 +15334,10 @@
         <v>3</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F243" s="1">
         <v>0</v>
@@ -15312,10 +15391,10 @@
         <v>5</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F244" s="1">
         <v>0</v>
@@ -15369,10 +15448,10 @@
         <v>4</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F245" s="1">
         <v>0</v>
@@ -15426,10 +15505,10 @@
         <v>5</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F246" s="1">
         <v>0</v>
@@ -15483,7 +15562,7 @@
         <v>4</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>22</v>
@@ -15540,10 +15619,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F248" s="1">
         <v>0</v>
@@ -15596,7 +15675,7 @@
         <v>5</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>22</v>
@@ -15653,10 +15732,10 @@
         <v>3</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F250" s="1">
         <v>0</v>
@@ -15710,7 +15789,7 @@
         <v>5</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>22</v>
@@ -15765,7 +15844,7 @@
         <v>99</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="1">
@@ -15820,10 +15899,10 @@
         <v>9</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F253" s="1">
         <v>0</v>
@@ -15877,10 +15956,10 @@
         <v>4</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F254" s="1">
         <v>0</v>
@@ -15934,7 +16013,7 @@
         <v>3</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>22</v>
@@ -15990,10 +16069,10 @@
         <v>5</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F256" s="1">
         <v>0</v>
@@ -16047,10 +16126,10 @@
         <v>4</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F257" s="1">
         <v>0</v>
@@ -16104,10 +16183,10 @@
         <v>3</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F258" s="1">
         <v>0</v>
@@ -16161,10 +16240,10 @@
         <v>4</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F259" s="1">
         <v>0</v>
@@ -16216,7 +16295,7 @@
         <v>99</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="1">
@@ -16271,10 +16350,10 @@
         <v>9</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F261" s="1">
         <v>0</v>
@@ -16328,10 +16407,10 @@
         <v>3</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F262" s="1">
         <v>0</v>
@@ -16385,10 +16464,10 @@
         <v>5</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F263" s="1">
         <v>0</v>
@@ -16442,10 +16521,10 @@
         <v>4</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F264" s="1">
         <v>0</v>
@@ -16499,7 +16578,7 @@
         <v>5</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>22</v>
@@ -16556,10 +16635,10 @@
         <v>3</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F266" s="1">
         <v>0</v>
@@ -16613,7 +16692,7 @@
         <v>4</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>22</v>
@@ -16670,7 +16749,7 @@
         <v>5</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>22</v>
@@ -16726,10 +16805,10 @@
         <v>5</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F269" s="1">
         <v>0</v>
@@ -16783,10 +16862,10 @@
         <v>3</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F270" s="1">
         <v>0</v>
@@ -16840,10 +16919,10 @@
         <v>4</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F271" s="1">
         <v>0</v>
@@ -16897,7 +16976,7 @@
         <v>5</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>22</v>
@@ -16954,7 +17033,7 @@
         <v>4</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>22</v>
@@ -17011,10 +17090,10 @@
         <v>5</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F274" s="1">
         <v>0</v>
@@ -17068,10 +17147,10 @@
         <v>3</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -17125,22 +17204,22 @@
         <v>5</v>
       </c>
       <c r="D276" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276" s="1">
+        <v>0</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I276" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F276">
-        <v>0</v>
-      </c>
-      <c r="G276" s="1">
-        <v>0</v>
-      </c>
-      <c r="H276" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I276" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="J276" s="1">
         <v>0</v>
@@ -17181,7 +17260,7 @@
         <v>1</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E277" s="15" t="s">
         <v>22</v>
@@ -17238,7 +17317,7 @@
         <v>1</v>
       </c>
       <c r="D278" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E278" s="15" t="s">
         <v>22</v>
@@ -17295,7 +17374,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E279" s="15" t="s">
         <v>22</v>
@@ -17352,7 +17431,7 @@
         <v>1</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E280" s="15" t="s">
         <v>22</v>
@@ -17409,10 +17488,10 @@
         <v>1</v>
       </c>
       <c r="D281" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E281" s="15" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -17466,7 +17545,7 @@
         <v>100</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -19735,10 +19814,11 @@
       <c r="D1024" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="K1:K1024" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{52D157E1-7744-49A5-9F2C-B050B8BBDAC1}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Q249" xr:uid="{46930173-156D-42D7-8377-52C7E342ABDA}"/>
+      <autoFilter ref="A1:Q249" xr:uid="{2C23364F-A2FD-4286-8999-85D05611C84C}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="843468527"/>
